--- a/TheForest.xlsx
+++ b/TheForest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/next.forest-dapps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EDD8412B-BE75-4F5F-8CAD-DD0AEC15536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="14_{EDD8412B-BE75-4F5F-8CAD-DD0AEC15536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82FA5F7B-48B0-45FA-8532-F7438B42FDBE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1A95C62F-7AAB-40F5-917B-077457EEA376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A95C62F-7AAB-40F5-917B-077457EEA376}"/>
   </bookViews>
   <sheets>
     <sheet name="ManualData" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="454">
   <si>
     <t>Project</t>
   </si>
@@ -1290,9 +1290,6 @@
     <t>/projects/bnb-binance.svg</t>
   </si>
   <si>
-    <t>/projects/hyperledger.png</t>
-  </si>
-  <si>
     <t>/projects/modex.png</t>
   </si>
   <si>
@@ -1375,6 +1372,36 @@
   </si>
   <si>
     <t>THETA</t>
+  </si>
+  <si>
+    <t>MaxTPS</t>
+  </si>
+  <si>
+    <t>MarketCapRank</t>
+  </si>
+  <si>
+    <t>TVL</t>
+  </si>
+  <si>
+    <t>UniqueMonthlyUsers</t>
+  </si>
+  <si>
+    <t>StakingAPY</t>
+  </si>
+  <si>
+    <t>StakingAPYConsistency</t>
+  </si>
+  <si>
+    <t>24hTransactions</t>
+  </si>
+  <si>
+    <t>24hActiveUsers</t>
+  </si>
+  <si>
+    <t>BizDev</t>
+  </si>
+  <si>
+    <t>/projects/hyperledger.svg</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACA47AA-AEB6-489C-9F19-E34652EE68E2}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,19 +1835,17 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>277</v>
       </c>
@@ -1852,13 +1877,13 @@
         <v>217</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>211</v>
+        <v>444</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>206</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>219</v>
+        <v>452</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>218</v>
@@ -1887,8 +1912,38 @@
       <c r="V1" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1949,8 +2004,38 @@
       <c r="V2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>425</v>
+      </c>
+      <c r="X2" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2011,8 +2096,38 @@
       <c r="V3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>426</v>
+      </c>
+      <c r="X3" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2073,8 +2188,38 @@
       <c r="V4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>429</v>
+      </c>
+      <c r="X4" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2135,8 +2280,38 @@
       <c r="V5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>430</v>
+      </c>
+      <c r="X5" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y5">
+        <v>83</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2197,8 +2372,38 @@
       <c r="V6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>431</v>
+      </c>
+      <c r="X6" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2259,8 +2464,38 @@
       <c r="V7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>432</v>
+      </c>
+      <c r="X7" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y7">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2321,8 +2556,38 @@
       <c r="V8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
+        <v>433</v>
+      </c>
+      <c r="X8" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y8">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2383,8 +2648,38 @@
       <c r="V9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>434</v>
+      </c>
+      <c r="X9" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y9">
+        <v>81</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2446,7 +2741,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2463,7 +2758,7 @@
         <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G11" t="s">
         <v>360</v>
@@ -2508,7 +2803,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2525,7 +2820,7 @@
         <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="G12" t="s">
         <v>283</v>
@@ -2570,7 +2865,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2632,7 +2927,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2693,8 +2988,38 @@
       <c r="V14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" t="s">
+        <v>435</v>
+      </c>
+      <c r="X14" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y14">
+        <v>330</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2756,7 +3081,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2818,7 +3143,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2835,7 +3160,7 @@
         <v>310</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G17" t="s">
         <v>360</v>
@@ -2880,7 +3205,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2942,7 +3267,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3004,7 +3329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3066,7 +3391,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3083,7 +3408,7 @@
         <v>312</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G21" t="s">
         <v>301</v>
@@ -3127,8 +3452,38 @@
       <c r="V21" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>436</v>
+      </c>
+      <c r="X21" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y21">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3189,8 +3544,38 @@
       <c r="V22" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" t="s">
+        <v>437</v>
+      </c>
+      <c r="X22" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y22">
+        <v>30</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3251,8 +3636,38 @@
       <c r="V23" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>427</v>
+      </c>
+      <c r="X23" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y23">
+        <v>201</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3313,8 +3728,38 @@
       <c r="V24" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>438</v>
+      </c>
+      <c r="X24" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y24">
+        <v>274</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3376,7 +3821,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3393,7 +3838,7 @@
         <v>308</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G26" t="s">
         <v>360</v>
@@ -3437,8 +3882,38 @@
       <c r="V26" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" t="s">
+        <v>439</v>
+      </c>
+      <c r="X26" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y26">
+        <v>416</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3499,8 +3974,38 @@
       <c r="V27" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" t="s">
+        <v>440</v>
+      </c>
+      <c r="X27" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y27">
+        <v>733</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3561,8 +4066,38 @@
       <c r="V28" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>428</v>
+      </c>
+      <c r="X28" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y28">
+        <v>33</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -3624,7 +4159,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3641,7 +4176,7 @@
         <v>328</v>
       </c>
       <c r="F30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G30" t="s">
         <v>360</v>
@@ -3686,7 +4221,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3748,7 +4283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3809,8 +4344,38 @@
       <c r="V32" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" t="s">
+        <v>441</v>
+      </c>
+      <c r="X32" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y32">
+        <v>300</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3872,7 +4437,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -3934,7 +4499,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -3996,7 +4561,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4058,7 +4623,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -4120,7 +4685,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -4137,7 +4702,7 @@
         <v>349</v>
       </c>
       <c r="F38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G38" t="s">
         <v>360</v>
@@ -4182,7 +4747,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -4199,7 +4764,7 @@
         <v>352</v>
       </c>
       <c r="F39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G39" t="s">
         <v>353</v>
@@ -4243,8 +4808,38 @@
       <c r="V39" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>442</v>
+      </c>
+      <c r="X39" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y39">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -4306,7 +4901,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -4323,7 +4918,7 @@
         <v>357</v>
       </c>
       <c r="F41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G41" t="s">
         <v>360</v>
@@ -4366,6 +4961,36 @@
       </c>
       <c r="V41" t="s">
         <v>186</v>
+      </c>
+      <c r="W41" t="s">
+        <v>443</v>
+      </c>
+      <c r="X41" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y41">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4416,10 +5041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE054826-8077-45C7-B438-F3E2090E2D09}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,9 +5061,10 @@
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>291</v>
       </c>
@@ -4446,40 +5072,40 @@
         <v>274</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>189</v>
+        <v>445</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>205</v>
+        <v>446</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>202</v>
+        <v>450</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>211</v>
+        <v>444</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>203</v>
+        <v>451</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>200</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>190</v>
+        <v>448</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>267</v>
       </c>
@@ -4487,7 +5113,7 @@
         <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D2" s="13">
         <v>100000000</v>
@@ -4520,7 +5146,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>268</v>
       </c>
@@ -4528,7 +5154,7 @@
         <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D3" s="13">
         <v>100000000</v>
@@ -4561,7 +5187,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>269</v>
       </c>
@@ -4569,7 +5195,7 @@
         <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D4" s="13">
         <v>100000000</v>
@@ -4601,8 +5227,11 @@
       <c r="M4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>270</v>
       </c>
@@ -4610,7 +5239,7 @@
         <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5" s="13">
         <v>100000000</v>
@@ -4642,8 +5271,11 @@
       <c r="M5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>271</v>
       </c>
@@ -4651,7 +5283,7 @@
         <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D6" s="13">
         <v>100000000</v>
@@ -4683,8 +5315,11 @@
       <c r="M6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>272</v>
       </c>
@@ -4692,7 +5327,7 @@
         <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D7" s="13">
         <v>100000000</v>
@@ -4724,8 +5359,11 @@
       <c r="M7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>273</v>
       </c>
@@ -4733,7 +5371,7 @@
         <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" s="13">
         <v>100000000</v>
@@ -4765,8 +5403,11 @@
       <c r="M8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>98</v>
       </c>
@@ -4774,7 +5415,7 @@
         <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D9" s="13">
         <v>100000000</v>
@@ -4806,40 +5447,55 @@
       <c r="M9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>278</v>
       </c>
       <c r="B10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>280</v>
       </c>
       <c r="B11" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>282</v>
       </c>
       <c r="B12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>284</v>
       </c>
       <c r="B13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
@@ -4847,7 +5503,7 @@
         <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D14" s="13">
         <v>100000000</v>
@@ -4879,56 +5535,77 @@
       <c r="M14" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>318</v>
       </c>
       <c r="B16" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>292</v>
       </c>
       <c r="B17" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B18" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>299</v>
       </c>
       <c r="B19" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>297</v>
       </c>
       <c r="B20" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>300</v>
       </c>
@@ -4936,7 +5613,7 @@
         <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D21" s="13">
         <v>100000000</v>
@@ -4968,8 +5645,11 @@
       <c r="M21" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -4977,7 +5657,7 @@
         <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D22" s="13">
         <v>100000000</v>
@@ -5009,8 +5689,11 @@
       <c r="M22" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>314</v>
       </c>
@@ -5018,7 +5701,7 @@
         <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D23" s="13">
         <v>100000000</v>
@@ -5050,8 +5733,11 @@
       <c r="M23" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>303</v>
       </c>
@@ -5059,7 +5745,7 @@
         <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D24" s="13">
         <v>100000000</v>
@@ -5091,16 +5777,22 @@
       <c r="M24" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>305</v>
       </c>
       <c r="B25" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>307</v>
       </c>
@@ -5108,7 +5800,7 @@
         <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D26" s="13">
         <v>100000000</v>
@@ -5140,8 +5832,11 @@
       <c r="M26" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>316</v>
       </c>
@@ -5149,7 +5844,7 @@
         <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D27" s="13">
         <v>100000000</v>
@@ -5181,8 +5876,11 @@
       <c r="M27" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>325</v>
       </c>
@@ -5190,7 +5888,7 @@
         <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D28" s="13">
         <v>100000000</v>
@@ -5222,8 +5920,11 @@
       <c r="M28" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>322</v>
       </c>
@@ -5231,7 +5932,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>327</v>
       </c>
@@ -5239,7 +5940,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>329</v>
       </c>
@@ -5247,7 +5948,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>332</v>
       </c>
@@ -5255,7 +5956,7 @@
         <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D32" s="13">
         <v>100000000</v>
@@ -5344,7 +6045,7 @@
         <v>186</v>
       </c>
       <c r="C39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D39" s="13">
         <v>100000000</v>
@@ -5393,7 +6094,7 @@
         <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D41" s="13">
         <v>100000000</v>

--- a/TheForest.xlsx
+++ b/TheForest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/next.forest-dapps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="14_{EDD8412B-BE75-4F5F-8CAD-DD0AEC15536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82FA5F7B-48B0-45FA-8532-F7438B42FDBE}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="14_{EDD8412B-BE75-4F5F-8CAD-DD0AEC15536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C3B5E6C-A5C6-4866-A191-32D6E1CC32F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A95C62F-7AAB-40F5-917B-077457EEA376}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{1A95C62F-7AAB-40F5-917B-077457EEA376}"/>
   </bookViews>
   <sheets>
     <sheet name="ManualData" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="455">
   <si>
     <t>Project</t>
   </si>
@@ -1402,6 +1402,9 @@
   </si>
   <si>
     <t>/projects/hyperledger.svg</t>
+  </si>
+  <si>
+    <t>Decentralized Finance</t>
   </si>
 </sst>
 </file>
@@ -1819,33 +1822,33 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B15" sqref="B15:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.29296875" customWidth="1"/>
+    <col min="4" max="4" width="20.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.703125" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.41015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.29296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71.1171875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.41015625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>277</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3019,12 +3022,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>289</v>
@@ -3081,12 +3084,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>289</v>
@@ -3143,12 +3146,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>289</v>
@@ -3205,12 +3208,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>289</v>
@@ -3267,12 +3270,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>289</v>
@@ -3329,12 +3332,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>289</v>
@@ -3391,12 +3394,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>289</v>
@@ -3483,12 +3486,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>289</v>
@@ -3575,12 +3578,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>289</v>
@@ -3667,7 +3670,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>5</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>6</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>6</v>
       </c>
@@ -4375,7 +4378,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>6</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>6</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>7</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>7</v>
       </c>
@@ -4747,7 +4750,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>7</v>
       </c>
@@ -4839,7 +4842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>7</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>7</v>
       </c>
@@ -5047,24 +5050,24 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.41015625" customWidth="1"/>
+    <col min="4" max="4" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5859375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.41015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.41015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.41015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.87890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>291</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>267</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>268</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
         <v>269</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="12" t="s">
         <v>270</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="12" t="s">
         <v>271</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>272</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>273</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="12" t="s">
         <v>98</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="12" t="s">
         <v>278</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>280</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="12" t="s">
         <v>282</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="12" t="s">
         <v>284</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="12" t="s">
         <v>290</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="12" t="s">
         <v>318</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" s="12" t="s">
         <v>292</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18" s="12" t="s">
         <v>293</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" s="12" t="s">
         <v>299</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20" s="12" t="s">
         <v>297</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21" s="12" t="s">
         <v>300</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22" s="12" t="s">
         <v>103</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" s="12" t="s">
         <v>314</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24" s="12" t="s">
         <v>303</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25" s="12" t="s">
         <v>305</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" s="12" t="s">
         <v>307</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" s="12" t="s">
         <v>316</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" s="12" t="s">
         <v>325</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29" s="12" t="s">
         <v>322</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A30" s="12" t="s">
         <v>327</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31" s="12" t="s">
         <v>329</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32" s="12" t="s">
         <v>332</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33" s="12" t="s">
         <v>336</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" s="12" t="s">
         <v>341</v>
       </c>
@@ -6005,7 +6008,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" s="12" t="s">
         <v>343</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" s="12" t="s">
         <v>339</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" s="12" t="s">
         <v>345</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" s="12" t="s">
         <v>348</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39" s="12" t="s">
         <v>350</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40" s="12" t="s">
         <v>354</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41" s="12" t="s">
         <v>58</v>
       </c>
@@ -6140,23 +6143,23 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.41015625" customWidth="1"/>
+    <col min="2" max="2" width="30.87890625" customWidth="1"/>
+    <col min="3" max="3" width="2.41015625" customWidth="1"/>
+    <col min="4" max="4" width="30.87890625" customWidth="1"/>
+    <col min="5" max="5" width="2.41015625" customWidth="1"/>
+    <col min="6" max="6" width="30.87890625" customWidth="1"/>
+    <col min="7" max="7" width="2.41015625" customWidth="1"/>
+    <col min="8" max="8" width="30.87890625" customWidth="1"/>
+    <col min="9" max="9" width="2.41015625" customWidth="1"/>
+    <col min="10" max="10" width="30.87890625" customWidth="1"/>
+    <col min="12" max="12" width="2.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B2" s="11" t="s">
         <v>224</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D3" t="s">
         <v>226</v>
       </c>
@@ -6187,7 +6190,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D4" t="s">
         <v>258</v>
       </c>
@@ -6201,7 +6204,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D5" t="s">
         <v>238</v>
       </c>
@@ -6215,12 +6218,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.5">
       <c r="J6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.5">
       <c r="J7" t="s">
         <v>256</v>
       </c>
@@ -6228,8 +6231,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="11" t="s">
         <v>248</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D11" t="s">
         <v>228</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D12" t="s">
         <v>232</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D13" t="s">
         <v>233</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.5">
       <c r="D14" t="s">
         <v>234</v>
       </c>
@@ -6293,15 +6296,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
         <v>224</v>
       </c>
@@ -6309,17 +6312,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
         <v>227</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
         <v>83</v>
       </c>
@@ -6335,79 +6338,79 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -6427,15 +6430,15 @@
       <selection activeCell="B10" sqref="B10:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.87890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>184</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -6620,7 +6623,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>201</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>201</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>179</v>
       </c>
@@ -6858,7 +6861,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -6875,7 +6878,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -6892,7 +6895,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -6909,7 +6912,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>179</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -6977,17 +6980,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="110" spans="16384:16384" x14ac:dyDescent="0.5">
       <c r="XFD110" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="111" spans="16384:16384" x14ac:dyDescent="0.5">
       <c r="XFD111" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="16384:16384" x14ac:dyDescent="0.25">
+    <row r="112" spans="16384:16384" x14ac:dyDescent="0.5">
       <c r="XFD112" t="s">
         <v>216</v>
       </c>
@@ -7009,27 +7012,27 @@
       <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1171875" customWidth="1"/>
+    <col min="5" max="6" width="14.29296875" customWidth="1"/>
+    <col min="7" max="7" width="9.1171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.29296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.87890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.87890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1171875" style="4"/>
+    <col min="15" max="15" width="22.29296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1171875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="19.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>25</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>26</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>27</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>28</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">A8+1</f>
         <v>2</v>
@@ -7325,7 +7328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7354,7 +7357,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11">
         <f>A10+1</f>
         <v>4</v>
@@ -7383,7 +7386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12">
         <f t="shared" ref="A12:A31" si="1">A11+1</f>
         <v>5</v>
@@ -7412,7 +7415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7439,7 +7442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7471,7 +7474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7500,7 +7503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7532,7 +7535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7564,7 +7567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7593,7 +7596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7622,7 +7625,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7654,7 +7657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7686,7 +7689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7713,7 +7716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7743,7 +7746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7776,7 +7779,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7806,7 +7809,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7836,7 +7839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7863,7 +7866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7892,7 +7895,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7922,7 +7925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7949,7 +7952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7993,13 +7996,13 @@
       <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="31" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.29296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="29.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>144</v>
       </c>
@@ -8094,7 +8097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -8284,7 +8287,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>143</v>
       </c>
@@ -8411,7 +8414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>110</v>
       </c>
@@ -8506,7 +8509,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>111</v>
       </c>
@@ -8601,7 +8604,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -8719,12 +8722,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A11" s="8" t="s">
         <v>145</v>
       </c>
@@ -8819,27 +8822,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -8859,120 +8862,120 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B19" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;B11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"25","Project":"ProxyIQ","Category":"Administrative","Logo":"https://lp.astfinancial.com/rs/573-SHZ-365/images/ProxyIQ-LandingPage-logo.svg","LogoHasTitle":"TRUE","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Proxy Voting","Featured":"TRUE","Color":"","Website":"https://lp.astfinancial.com/ProxyIQ.html"}</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B20" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;C11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"26","Project":"Chainlink","Category":"Oracles / Proprietary Data","Logo":"https://assets-global.website-files.com/5e8c4efdc725c62673645017/5e981c33430c9765dba5a098_Symbol%20White.svg","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Off-Chain Analysis?","Featured":"TRUE","Color":"","Website":"https://chain.link/"}</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B21" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;D11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"21","Project":"Ledger","Category":"Banking, Custody &amp; Investments","Logo":"https://www.ledger.com/wp-content/themes/ledger-v2/public/images/ledger-logo-short.svg","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Secure Personal Wallets","Featured":"TRUE","Color":"","Website":"https://www.ledger.com/"}</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B22" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;E11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"27","Project":"USDC","Category":"Stablecoins","Logo":"https://www.centre.io/hubfs/download-icon-20702d8b5a.png","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Inflation Hedge","Featured":"TRUE","Color":"","Website":"https://www.circle.com/en/usdc"}</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B23" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;F11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"5","Project":"IExec","Category":"Oracles / Proprietary Data","Logo":"https://iex.ec/wp-content/uploads/2018/11/token-1.svg","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"B2B Data Marketplace","Featured":"TRUE","Color":"","Website":"https://iex.ec/"}</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B24" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;G11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"28","Project":"Stellar","Category":"Banking, Custody &amp; Investments","Logo":"https://upload.wikimedia.org/wikipedia/commons/5/56/Stellar_Symbol.png","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Transaction Settlements","Featured":"TRUE","Color":"","Website":"https://www.stellar.org/learn/intro-to-stellar"}</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B25" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;H11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"1","Project":"Akash","Category":"Cloud Computing &amp; Storage","Logo":"https://akash.network/_next/image?url=https%3A%2F%2Fwww.datocms-assets.com%2F45776%2F1620312179-akash-logo-normal.svg&amp;w=256&amp;q=75","LogoHasTitle":"TRUE","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"App Deployment","Featured":"","Color":"","Website":"https://akash.network/"}</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B26" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;I11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"2","Project":"ComputeCoin","Category":"Cloud Computing &amp; Storage","Logo":"data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAAAgVBMVEX////+MAr+JAD/+/r+CgD+j4X+fnL/+fn+KgD+Xkz+n5b+FgD/4d/+IAD+pJz+VkL/29n/1dH/zsr+YlH+l47/x8L/6+n/9PP/5eP+Tjn+eWz/xL/+SDH+qKH+iH3/vrn+Qyr+b2D+hHn+NhX+Zlb+sar+a13/uLH+PSH+Uz/+dGfyJq2QAAAC5UlEQVR4nO3c61LiQBBA4WHomEgz3K+K6Hpdef8H3AxJgAha7NZWkdbz/VDoYFVOJYRIUOcAAAAAAAAAAAAAAAAAAAAAAAb0+tfHlu1iYXt5YmGhP7nsep8vCdkxKQtTObGwEK4uu97nS3zr2L7wxMKCp7AxKKSw+SiksPkopLD5KKSw+SiksPkopLD5KKSw+Sj89oX6Gdlcdr3P92Xht0ChfRTaR6F9FNpHoX0U2kehfRTaR6F9FNpHoX0U2kehfV8Xdj83u+hq/4UffmXmJ1xdo9AACilsPgopbD4KKWw+CilsPgopbD4KKWw+Cilsvu9fuNZwbF94YmFBby673ue77Zwwqf6L0uTU0sL9ZdcbAAAAAABjZqPbabc2mR9NLJuu4ocDJXT2k2Uxqf4T84P8yr8ORHZvm4h0nBmP4jWsniToqpxcVZOQFZ/v7IeYNtCWTMuHSOhdYl3/SUfDddwf04748XaSaBjHSftOMp/Gya6wFdLipwwVzsQ/lzdfVIYu7oy++txqdXNX6KsHGypMvKTVbS/xDdhXn+2WToLE/bQq9BPVt+0CQ4XZwdvK81nMOTzkzCXcuX2hdtdB5s5ZKswT3uqTvGO4v/fbx7Zd4dC1fD/O7RR2VUf1ya3KwQfkX8O1qxUORONWtVNY32LRvRb7YWET3l2tsHxq2ilcqE7rk6nqYn9vvH0FOSx0D35lqbBdHErKO/N863XlsNn7tftQuIjnOnYK8y0y3t1+lPg6EQ6OrnlUvPpTK3Q9lYXaKewFqc6wU92+TiRBdrvpONP4rV7o3v0qs1PY1uypPLL0vcYremk+KY+ma90eOD8WziRr2Sl0I8l0MuoO7p58eV6dTyTJJy+roMVJ2ofC/PzOUqEbhervqKojzLCcBFkXg+X2anP+21P1yjIOaui3p3yTPGei/V77cOJFV0n1fExu4hZbbDbVU3a+ueH6MwAAAAAAAAAAAAAAAAAAAAAA+B/+APmiO5dq0Qc8AAAAAElFTkSuQmCC","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Cloud Computing Costs","Featured":"","Color":"","Website":"https://www.computecoin.network/"}</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B27" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;J11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"3","Project":"Golem","Category":"Cloud Computing &amp; Storage","Logo":"https://cdn.iconscout.com/icon/premium/png-256-thumb/golem-coin-1429832-1210382.png","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Cloud Computing Speed","Featured":"","Color":"","Website":"https://www.golem.network/"}</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B28" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;K11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"4","Project":"Storj","Category":"Cloud Computing &amp; Storage","Logo":"data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAAAe1BMVEX///8mg/8Aef8Ad/8Ae//l7v+1z/8fgf/s8/8af/83if8shv8Adv8Tfv/3+v/x9v/c6P/H2v+mxf/S4f9gnf+syf9xpv+Zvf+Gsv/N3v/Z5v+60v93qf+fwf9WmP/1+f9nof9Bjv+Ntv9Mk//A1v9+rf+RuP+bvv8Ab/8dYhYVAAASd0lEQVR4nN1daYOyLBcegSIq2myxpkVb5n7+/y98xQ0QRFQse898alLjku0s1zn8/LxP/Mv5MfNmj/3Ff+Ovvk1WL4Ao8ZgQisBr9OkGOZZJCFN0uRAYTj7dKJeygdgrC4abTzfLnWxBjorQWHAGF4SfbpgriWgKj8Io2Ix3//YYpEOWPj7dNDcSZXDwZpn/6/RKp+X/B8SQprPuIP13skUJxNeHWuVQdiCdgKvyFxfIvoDPTzTKpSxhOgeX6le/MIH+/ja5lX0y34B2f9+wgUr/vbtJbmWSdCEa67/dxvAxem+LXMudLTM4qvg2wV8F/0sk2dzROv+4OESIhMXHn1fciWT7kZY5khVbSDHOP54QxfFHGErfg480zZHs2CAlQfZpkmunaJ9f4MX/AacPtc6FsFHood/s07ZQv2FuIJ7xl0/EBFPeR8s5t53O2QUX+uX7xQMLm+EacdNpml0wZgjvH2tfd4kqEOJZdsEYfTnCqzhKR5CP0nyH2Hz7KN0n22GuXM8KhMXiEsRLEd19qnmd5XZODCeSj8J1vtSQfBpmw/i1+FALO8ols+SLSffzb45TWzi3NDLLg6JvdNmsZ8XCAgr36DGCCICguOhC82E7PX6kle1ldAXcu4av/IuJL5rCmF8Et1/lXQxk7yioMOQPVLiIwO/ZNXZIbDnrRKox8WNFHMqXUfod+ps/RYr7F081F05o+TqMouFr4ZNQ495mEJVeHBHNhRjutd09HPnT4ku651e+cldxJYFDVnF+MdW2OoEIHty2/1lHqPJK6g3Vw7h6gIoOzDHmW/8SqFNVfhmKd3UAcjtXDVAu+XozgTUXYjg8RS5X0ewQgtpLCRiWIieoaI4QxorcbDiKnKSiOUMYq0LbgYTCSyqaO4QDUeQUFc0hwiEocjoVzSVCpsh9kppSoaK5RMh2jvBjilyliuYUoRo/fpeYVDS3CD+jyNWpaG4Rvl+Rs1HRnCJkQ/X8RkXOSkVzjLAnRW4xmajrmKWK5hwhU+TWSms6yOlwpRAAAGfnsQAzVtFa4uuOMFbkrqIit3weztvr9nx4tthPNh7I3SgYI7jNtWB7Fa0XhLEiV3hbdw+IKCGYEIrgo2FoYIdKXiICHqOfZipaPwiZIpeAuSBJm8IINNg0l4/sZkwpil9T8gHDy6mRiqYRJwgTj5zv5U2MuzDzK1NsO0t9RNIHwevf+Pm7CyKY9CjtiM8VQta0tClxE6N9EJwfIGkytjRFjkn4BIOIa/WTC+k0OnNxhTAVDPdFp/kvwFqIQguAq8SHgmnJ+ddYB9WJS4QxPinQsQhYw2k9xEU6IK+K/rDC3SG6RIiUSbdi1BVUO1AZ1Uz/Jm6zzhDdIcRYF6liXF1Y491Zs9+u4GEtdW74zyDEVB+Ki7DAwNLLlN3uVXxZjhV9DiGssPuX8RprJj4kXQgq+znouKK6QkiDqhb+xk820jlDxhW8Vn/fsWWuEBowxOPUxCJbsGEodOEt8CB8CDfcOyil7hDSP96i1V8YHgRt/Ik8bEgAYKwlYaaeEuU7Nq/587o1zRFCyBHt57FSSefCqI0nEqw2lVlcnRT5AcvcT0E4xG7LqSOEPKB8zRYGTudkbEd1q+RvROJC7oshCQoFJ+w0TN0g5H2wK54DC1A76tFqXwCjEqJiIdbQ0FLedmtxg5AD4DQyTmjxEafsqsJ2wyJxQJhzfG5eBoCwiJcvhf0Z5i0cAQ/zMWtEeBoswtx3OhIeU6wuZoTJKM35HguB0luMgb8hIByrLeRbZDz0CgayKslKU6wqnJYNitUnHMBaSi95a65Fa3i3xTuegZKb7BbF16N57oriGSGHTmaiG4TcF+UXnTgvPOLxPDIQVhOeMt9tjolfDaPZjV/SNNzkHKHkM83scjzn+0Pcr4b0hlRr4wGC5QtAiEu6erOQoWOEtOT3HiNEKSA8bsPWV1OKSpJqJa1EGp93vKm2XG+6IiQaEsp6sxFtoX/UtJRm1hOs5wfc2/mFOyKUHd56QSbrj0liAVelmgky2baxhjvFnqyCFixJR8eD5JJ0olVy7rHFdCwQ/qcQL+uEIhu3/RNW03VzSTxRdg7ypi5+Aoq3OxmHADWwUwgMbIKHTNEkdenhqTcRqL14i5Qo7KJBmAYjFMjOlWNAgCVIqFCHluHfjyI+M/dgLV18leyiNCo98xlbmupKZhtqI/CqGzt+YBEpwBoe/wEStL0p//TscsMzrz7cC122TqP2BFzKV1uESzEF98pFcB1C85ykqoYyTjgSGBzEF/6csoZApYE68dMYNgbT+68/WvnjF3/TyFMWtI055I0RNgenb5tZNelBE2zxo7w1FO7HyaubrO84edFzK4DxIM8JvAQhAPLwWvaT6qa0eBkUOYotaFvrq/4JWC3xImuNGAEIEMxWLQzsg+AXwxKin456jFgd1npZlevXeHrC1736ZWJ4bRLrXgaGyaEhRajTkRVqAQ1+c1XWITSkPZO6CK5N6ai/phVEo1+IDJR4bUHX12H3q3twpRynQvsxVLYDo46BmtNtx+Y1Up2OOYsonhvhuB319ZB3o2YCjsx6or4uRReEuunImGDxbGjWc/ITvCz+XLbwapWLHhBqp+OThDX0s9X48Drvz/fNU3/hg+qW302tgtgLwsYcpcV4m24+CQUGwKtOmb7OFaXYhoTVE0I7ky2XDUTySIsXpEC9XZmAVpphbwg9PLfL/VgcgG6gkfm+rF7KcnvNrbTz/hBaJvGOtfgSjMBk+FmzIPtEaDMdQ9NAAyrxI5OnZ22B9oswfv7DNFRH2NwRBGubd2pCQ+4doUn9tCA4AHXrWO4bOWZ7Roiqw1nMtVDfUgzLEA8NvXn9IsQ6bsNq99pG3uxx9my6opQLPalcmD6CEBNlEo7uGFBCPMzE7iGyC/PR1BfXK0JYXkkn+3ljb2GJI/NsSiXvEyEOS3de2sVu5pK2bTW2BekTISxZudeWTH55nB4aTsQeEZbCkUuvNVtDclaPGkYNekQIJb1y2YWFKgUcGr6p/hAS2Ts+7cK3kYNG20ajvT+Ecrz13InIUHpb9yYDtTeEvH4Qk2M3Amq5lummweN6Q0glg3xWf4O5mSXdbWMfZ+wNIfIb32IQJUQRWD+xN4RQvCXqygMvTcQfkTFTI30hlMiqHcmnnk6Fv9kGmvtCKLEAm6ohqmCs2Im/lq+tL4TSxGlsD6iCQVRW4y2f2hdCJCpabpKZwFa2xXy7LaM3hMJSOnKCMB75RG6sXSf2hVDcwPyue0VFa+1Mxd4QCs89OkNYSuz5LEKhD90h9EgotuRlo833hlDQu0+O5iETKa/Japj2ttIIa/uya96XINLWb/Xg3vZDMdLnJJE2E4kfaeOz6Q2hGGzvxgEvPViM9tiksfSmtYm5mBuHnSitNTb5ZP1ZT8IdtXXmGoiU5WmT5NFfDFhUlV0OU9Es230SoTRfji73i6EglLMZp+46UURoM8H787VJhNWOnihBJA+XTSpSfwhlV9Te1XIqLdLnT66lHqbSXd2rEqQivTgb+6lHr77MoVerH7cTydH8WT5N2Y2rrX/cXMQQhpVK3yufRqZJ3h4OrCggsv+ssjr7jQGXHr5pHIQvixxKtHLD9hoDhuVMqlsg8+9J0+pS0hZkF0nsM0KqK2m42D3mjIQY/1EEt+txo8D3XPIoBlYBu94QGuqLH3evMNwHae7cZFvBxteklMzlV2aXX9UTwiY14ld7qIxVjOhhFZWqks3Kfm+r/KpeEDat87+8TCHKS4/huPdgWmxrh/MkL0wQ1jEVLfKr+kBISfMSv6Px60EgBBB42zsvBbg+e1n9wgqSY321afcIbWuj6eS2VJmMi9FoYuI3rr2a3IHmCI35FpozU0aP6jx/J2Im0zZHeDsbhoWaL8dyn+i03zKxNxMfszFCUyqzJmF1k3LUoYmF2VyUYXuKqncOYJVlmss6zy8ihNKSKq2hrh+LbAGKLDO5bGSC1cynsZr5lDePAvtUlr+UHk8A3Qb/DsEW8RmgSc4bbUXd35RN2Ux8hDGIlIEvji6CAJo+IpQdlwFtV4IzSLvjXux2fnbIdLyeKSqasldRGF0cTMhDlsqq1EcuEuUJDH/T9W7yTJP7kKFMmSCvZMiVNoMby6LUJMlq8+WS1LX77umfVqfjc/PaNs8rWxWntGhyj9JZAV+iPrVMC0PanNqa1F7CntILPlWTP/zqmc9UbhTv4kmFVzDdNapUPZJWTU2m8wYgpYWrGbEpDJnaKtqqCpNyQmeTMidUqDUq/dxOrQ+4VvJJ1d33dte8Mlb5q6reIBfm9dGeP6VIw4qmGCGJDzQ67oIrAhR4wZO3f/R7pkjdqDT5lhWNryz6mEtaONHijLcWVfW94seXUayHFgWK2YoYbc/n/XYKKistUGyzF8QA63KUIqliW6WsohZV9bmXd6J0P7OVzeRbnFajNosP66p7shK79WO0ZVV9AWGrAIdNmlyIZY6PIsx/Lh4fNr4idC13aduq+l0RavXFcfASd994oTQW4PmJPLEG0S3ZDGJDV9wlnjVmTJ8I2c4hrZVPhGLFEgo0qnixMdUvZXWihFeQh5KEMMnK9uCjnhDKZ7L8ZtmXZFZA3FBdmlghzLvMyXiXorNQ4W66d3D3OkHI0k7zx9wKPyMtuuWEvPIpfaIw5gpP3edRFt42s138FoSciSLQPef5BncDQsU6VZjnoujjm1h3MZ+JXYhPrhAWFoRAIOY7HCiHGWSEVDCWpcqS+djvQs9zNUoL1WjK/8n7DRjP+WZjkMe1hGYU6+t6AAi79CHrIb5h8tArf6gNaaBnhHweXjTzcAlMJWgTRgyPvk7myv2WQYR+ERZR50Wxc/G1NF4oDGWEkzOWBXbFcZ7gIUKkpEsU2xFCwa2WH2VOuaIZr6/Gal+MyilcMNrGJsBc8Mx0SjhwhVDYDXwPUBqb5hzBrMZ+YguJNFFvvi+qbFZk1r4RShDWh7+NYHP4wFQnmQmzYEClBt+NueYKocm8exirlzJhyxOpVM6vnap5O0NYznHj8gvq61oyExtUvKNLNw6CM4QlHjiXCdvP62p0PJPSfFr337Mjp8sdwgqX2iJe6U0nO2SSELd01Qd3XUlrDhF6QANxyVJ0bXxMSSqvGmM5d89Mc4jQQ9vyerhm/I+5zUmQi2RXp540GXe028kWzhF6WHaqrbZJaU+78wMXUVJaEtFgnXT55PlKjmHD3Q5dc4gwZetQFBzTzXq0ezAnslj0ukZSXxpzZMYqA0iP/Ip71e92rJUrhAQcspI+BEESRTOQHvPXpDCkJmqensrXrkByJm4QYni+/SyKgAI7/ij7/7bZIYi7WXH+YdKZr2yNalMg2SHC4sTV40NklmEKH80DXKe/CLLYEYDeWfTttD4D0QFC0be/us8gokwQnN3bRixH/tFflWNqTQokO0WonHw8Oe4uh8vu6P7M53ZnkXZE+ObTq9ucJ9sJYVOKmQNpHr3ogvAjp8g3jkC1R9iFYtZJGp7N3RqhGuR+nzQobNgWoa4k+1ulQW28VgjtzkToVezrG7ZAaHkmQt9i4tN1Q9ikwm2/ouHTOUDo+CT1jmKoBt8SoYbt9VmxsKtoEXCY/Ff3PjTVwj8vNXYVAS+u/x/3xiW4sJGGJga7KrFbRZFZqaXO1qXhDEMq7SqsKey/q5i6BBgP9P206O0q7OnUrpNO52uShvMh0dhVGOsbrZZQ1pwZMERR7CqlDHIu41KHU9LhXIV3ykK2qwz8/a34LixJpMMQya6aVV8nBCQ1h3YMW7hdZaSr5nwPXKLkfYXkdpVEFfwNo6uYkJHlaWuOrfoGie0qz5MOdp3Eag/GdC7MN+axJo6zid4op0gapIvcSw04xDP2iHJu3BdJQES2J6/BOy8wbSg/gfgbJd4NeK1o4YBiTq57ohpi9sCFHV1bfBBYf5x4tTYzXgcvMUJeSkdg33JKyLcjDIlAHRAPay8oO+MvH6XxSiMUAOWV5XiB+T8qV1v+NtlJh2QXhBzhNFQ2js3nIQ1b2FHuQkrgXwoRTbkPBtad3zt0wXIXPWcQASSoNGPjWe/fIHdSqpU1Wkv7e1TLJRy6sITNajbnz9OCSzh0CbGBzckGcd0h04OXpBOrLMR4u/z6LozNRFTF5kzOBZh/sV2RC8ss1p4lfWZ814EFJ1rJgqkyqo07YvxA1HM9lDdJcroO9ST9ehkwdxwypnt+kSR0Toy8Pz/dNya/IasZ9TGGRR+S9BirDOVFj2lWqIMas3e+TnIHan7QHKbDiNC7FH8PixoDFJC/73L/Wsr6sH/MvOn1tXmnKvo/Y2gSIO4mMTcAAAAASUVORK5CYII=","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Secure Cloud Storage","Featured":"","Color":"","Website":"https://www.storj.io/"}</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B29" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;L11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"5","Project":"IExec","Category":"Cloud Computing &amp; Storage","Logo":"https://iex.ec/wp-content/uploads/2018/11/token-1.svg","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"B2B Hosting Marketplace","Featured":"","Color":"","Website":"https://iex.ec/"}</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B30" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;M11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"6","Project":"SONM","Category":"Cloud Computing &amp; Storage","Logo":"https://seeklogo.com/images/S/sonm-snm-logo-12CA1F7BBE-seeklogo.com.png","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"B2B Hosting Marketplace","Featured":"","Color":"","Website":"https://sonm.com/"}</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B31" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;N11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"7","Project":"IBM HyperLedger","Category":"Private Chains / Custom Solutions","Logo":"data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZcAAAB8CAMAAACSTA3KAAAAkFBMVEX///8vMTUPExoXGiAkJisdICUAAAAZHCIVGB4nKS4eISYrLTH5+fkRFRvd3d78/Pzs7OzV1dbLy8z09PS4uLl4eXtub3HCwsPl5eb19fVmZ2qpqqu6uruFhoh/gIKkpaZNT1Kam5yPj5E8PkJcXWB7fH5FR0oACBKXl5lUVllpamwAAApdXmE/QUU1NzsAAA5HlIToAAAO8klEQVR4nO1dCXuivBYGRJFFDMhWQQVq3Wo7///f3ZyThYh0pvd+o/V+5n1mqiBoyMtZcxIM41+GgER5smnT1U835BkRRZfbSEazOp3Py7Qt8zB5TY7lzzTtmdG+7zP6QsI42ayy8/acrjZJHBL+MVm2htF8Fj/ZxKfE3jTHy1O2apI4IkHvwyDNFvQlLusfaNlz49X3zaQig58djkxOFutofc82aVDz4u42IBFl3P+kquWuo7G6+ljjpljFxXEOb4qkrBbd/qhWjH26MHbze7fsqfFyJlEo/OAgL8sQ3xXbVj0qiY3ifO+mPTUOEYmMpWJeQqrRyPrt5eKogrK00c7yHVEblBeyvNj3tm2YI1DI0GZL/x+HnQONG6DMgRdjpcSWZQ0b1BGIksleKC8g7mX3Aw18UtCuBl7mtdgR7xLxlri+uWfmxmjgNW/7p2vcBlXJeDHKCrfDY6N8mo39CffQIjQuWXjn9j0raoPzAoJjkNNKDfhJnO3iDdNw8wxfPu7bvGdFdDAEL3ljrJYXhj2k++Ffg1wd2b7s3k18SmyhyxkvRm1f5pUjSMHgLuobUM+Acdbm92zfkyLEpBfj5VC3y1TJteTIwwINCmkKI2cGyNhdBjYaN0CGfY+8pGWxMRabesUte8UNDZehvCQ8J0COd27k84Gc2Avt+2VlzHGraOuGsiW1ldBtgcz0J5t7tvEZwWWD8nIEBSYEIVqf1zJH2dmctOEidNZjZDdFwIkgcY0EpSKZTKL4tOQS0/FCw39mYuY67L8pGm7lyYi5WmIAJgKWgmSbAidEus5hg/afItZlGLdEzV6IyWUiYoYjliP7m7otFIGBFFmOYf9aj5HdDlwrhXXBeznAmDFX/eBwdWzlUBmmMOcY/3/oMbKbgVmJ+EjtC98D9qbqH1am54Sx0DJ7HzYvRrHsH6bxl5Cj1qqWRsdLGgTX0TwVj+qcwSGxSDRTSdskVwdq/BXU8KdMDYWXMhmwGyHosUV5XIfzN7GPNORcaG/5FohgKOWA4ymSl+oweCR7KQ7LjyqPCoJKLTq873XgfwMsqRismQNGpH+cDh0pZWj9GSXlYZUtz+fTW+2blk5h/nUUlIITt/Gcl3xhDEqA4KWOTsretW2+R0OHa/wTpAXLvQAYLxXVT1m/DBbAep98FIbihM039lgPKv91LJbGTg4JAy8Bys5mSAIiICvcBTyAYac0kc5e3gCHeNe5U4vIIMxUxEMVYgElMEdKpLyEpXHUkeUN8HnsCl7JchtzOVl8YfgbVjQu5IUGMqFOkd0AZa3c7a+2a4v3g4Y/SrnO4vKSU713WgwdqfHPsMqUAou9ab6LzdOQdpJV/UxeoICZ6PKLm+BzuZIMrN5HWcg1WXNt+Bc7aXRQXmA001jrYP8mCN+KbhYFhv7zCKi5Nvzhx8tCkAC8HCDdHGzv08znwyE3qp3QTzwHGcRx3J8VlgMDQohORsAyNQcdUd4KNTXcDZ+lF0mtFNTRhYbaYKpSsJAGvEi2vkMDnxSkpn9e0hTU0kuX6FrSKFMOWIoEGperuVB9pU6M3Q4J3vvFuaEOQGdVsGy/iCOkpld7EYvoRtdd3BIZ626YRtkNcgnDX8RxIVMCBbJU5TyWrPS8sZtC1OYntRzwMog0/OFrHIngERjcFC+cl/ourXteRDI4bI/S2ouIP4c3NKzBMCfGsIWwBHKszpDRuAFkbf5L8pbyMhiea9kIWwJhTWO5bcDmvhp8DoDGLSFr80s5UeyA6f83RSbm+d70wdQXGLzojOXtIWvzwZLnOxiDycEH2F44wmRi+mCLQiQr05OSb4+SZ4qZh7WpI4OsjMXHxSzKuDy8j8Dyh3CwzljeBbw2P2ee13x1WizJh5rDJxDRMIuCQ5QrPfP1HghYjChLlUhmqmMw842i0WBKss5Y3gm8Nr8LFY+rcyI8rvwigoSYs9EV43cCq82XBJyoYsvZ7JewuTTxUAdb37VtTw2szRe8xCxGCZLluu0n8/NKrL6gcQeEEEqKaa5y3YQqKY89G1/lOmN5TzSJXDhJLN8TbyDi5HNgBap4sI5J41aoCR+z5AXKRSMFJVofS+E2J5GuFL8rFjU3MLhUYrC5HPaKMz4xKWkG6/01bobqgLw0YNWTa101r84Z5ara64zlnXEKq7lBtrBIz3DB3jxZtiudsbw7dmFhHIPFdf1YUER52axPy9Mp1RnLuyM6nd7KRBiWOSwK37BF4Vt1UXiNO2PuuN4xjODZFZQMWBQ+D4ku2f9xRJZpmk2ZX6/Qr/GjsMd77QU/IBaNTn1paGhoaGhoaGhoaGhoaGhoaGhoaGhoaGhoaGhoaGhoaGhoaGhoaDw85vOAY8EAOwNCCgbyxeNfw83p1fbsz+Mq6Z4cVyaAkmGzabBOPTkgWoomiR6/JjrM4zhWpm4RvCiy2OBFKdWRedPAhRlxy7FaHcpY1BmHGceS4YgrjJW7GrH7+KhPB/krqee69sXk1sXEmc4YLMQEf3JiWXzbso/t1aT+fGd5rm+apu/b4/2STwtM3scAT8DCCTXpFN7bAG88nb09+tyB9pfjjCbddjxxHGcSGZkFFzeRK4YtLLiqSWWUe1tiPLX4dJVo7zL4DDZbBdnxJVx7NObrxKS2abq12ooACspVOLA3d5Q9vj31Dup9vjhavnqKu2ezz6vx5VfZyMvavdy5f/DVMw+26AWGaEq3p5Ext/Fa5UMMoC9xsxz3LjCWp6m9iCuJbLzLvVP2dSntI79WW3HFyxT2xk5vr+d1MhOO3d6nJruLrnhB0V3bvYMf/LkyyMu02xa8GDl2lSWecrSHrdniihd6gYUxwAtOKma8oLiw3Q7e0t/mZdTveXMvHjxCRuwrbYfquhF2+p71NOPFlUI9wvUbV3gIqsQREup/GI+ML3kxMvjEf2W7d9ALU5jmzXiZwgU62DXuVpxm2mOHw6rhLOTFf6VW5nXM+vgXGHTk5VVtBePFtqCPAVPUrIwXqgJ925ry+31fKQ0yXWudF6SID65nCs2EvLjpioEaQpycjrx8gldBohTl0HroNZuw6wZ5CfBmd3DicAk95KIMIC8WWQQvJN6y+5Tw0+ymqnKGOJZfbrEvjrEjx/B1X/DilUYQzDnwFPjVKSqnl6gdM2YsdNVK7FpvK833aiKWm0VerL4Dx+RF3Rg/9EMYv+aFazKHulzBWPS/4EWsUwkqwYkvTut/OeeF9bINigx0/RAv/Ycj4RkzcVvP35hMolrCXrbVR5HJ32a89P2tC15C+CbvoVc2/Q0vTJOBO4NG02Hdxnjh87zRY4IbD08b9T3ZC16w711Y6+J/44X6juz2oL+dM604eEX/Yl54BwsxCcHo+zzgSFRe4u/wwp1bAn2PztE1L8bXvKhCWIMudBJ+o3yhiPBesfoLBCAvrrrxf6DHRuw9qPVwpHQwajI3O0N37HkoU6m8ZKjHqMENZ3DaoB7b8w2wKuwmXV/ZF+TFbsMoihnwdr/ihalCKsAf0CJLBLUEAXkBbLSDjX5LATTSPeN9wXiBg8I8Q+O0f+inyzBXlvlRFg23scnyxkdNhiG1J55X2JnVefEm7Q7yYn76LLj0HBZKlB6ac8gctJ/MUYVe/kJeTHs6HTFM0Ou6Mlpz+BUIjeCDztP+3FtqlgAvwZV4R/pa4SfPpg76yZeB7cOhH/qZF7wEIljxpS5n4YHted5ohteK/cN46WAxXvBYD7Iitt91BsbenxfN6MUvDvq8187Ep4mBR2eqEDsR919nCaQeba/iyod2k//Ai1HxDtt3e67iSlxd9ze8dPCZOX5TbTDDN3l59VHSXv4pL743ffAlNEvOi8xjXfJinFDo7e7Rhj1e/HcMcL7Di2t9MJW++ooX2YjZF7xgqLtjh/syRzTEiz3mcCaKHvM8LuLNFwnqh0HJUyWfDDu0qAovL+xCuvUpGC9oSGzb2R9ZtzFePKbmZ1TTo5ZgvIym6NW6qfjWr3h53fH8c10P84IuHSTpmFIUu2vH8/D2QZccebEbzIsnVVUlnbz41M5Bk648v8cD8jLrtouZVCMMZ3rFbvdsXKNy8F7NsjRdHyoRJiAvXskHTKh3hJ2BvIyiMMJz5Dp8A7yMhnrryvnG7/MOPJ6dqRYCfwJ5YVFP39lCXjyD+9r7R0/zc146cQj7vEAXuMo608PhQQF3stPX2TI30KA3LtaC+4qXfqB3xQuKCbh0aBVdNdxHNv7EC+g5XKNGvdEeE8iL1fHC5EXpi2VPXhgv/fvtd7wAh6gtp/xnvstL2ONlKTOpBNPbljJs9ydeMD87hnegAEzrwYdfOC/d7X+lx4bl5Xu8JFK2MM8ovAfkxb84cpiXmcpLWLMQBNuWueZl70Z/4AUlFnnB7EXv5x8PF+ku4yt5+TMv/dMQSs7GRLXO1+lVcyIMGMg3RvDCh/cJnITyMq4ICcO8qdnoJM9VMoExrZTZmEWCPlnHi92I4f3NBtedRV7Y+B9yKuPkB8X3ePmeHvPPYnh/uz2CMVF4SUamDPK5z8r8WBrcE8aLaYvRfct6BycYeTHHGKN7fBhMjGaVzLN2Z+YyXX5YY9+84IX7yTjA/wvUncIL4/Sx0zBf8NLTY+rgIvJypSaQF9MXg/yui9lnNcf5ijlHdLkOl7G3JXhR4MIDYMLeICg9/9g9cFmEovTHRPyCIeTVKCdejcILy3r6j71M8zAvikH9b3hR4PV5yTHCwY32mpd+1mGQF3uvWqDNL79/EoaQv+FlzM5cYGNnD70U2hUvlnkpL1mPl3iQF/IbXrjOw8AB+3uAl372ivHSJRF815uO20vtGdaWcpo75saGleZ0RTs2Dj0fLPpO1P20FlVv44deqLmc+r6/V3j5RS9KdUBPjm2PlWKv/J1e06Sf9COTsSMH9wHvcGsnkxEzH4BoAuVhE0p5O7G6wjDLggPerQ70k6mF9mXCupfeGbvT0DNhojfbGsGvzSwzTXhqJTxBgn/NgIVu4G3kLVa/Mbw04A9sHrkipqq3223d8UIgks+UFm/g2pRFKcMG0Lf7AU97yOH9HCSK4FiKrP1D0P0yKQCgvhe1CoRXWyqj+99DEVdJFYfD62RraGhoaGhoaGhoaPw0/gPOTA3/2DvUjAAAAABJRU5ErkJggg==","LogoHasTitle":"TRUE","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Private Blockchains","Featured":"","Color":"","Website":"https://www.hyperledger.org/"}</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B32" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;O11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"8","Project":"Atra","Category":"Private Chains / Custom Solutions","Logo":"https://atra.io/public/images/branding/atra_white.svg","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"No-Code Development","Featured":"","Color":"","Website":"https://atra.io/"}</v>
       </c>
     </row>
-    <row r="33" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B33" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;P11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"9","Project":"Emurgo","Category":"Private Chains / Custom Solutions","Logo":"https://mma.prnewswire.com/media/1635839/Emurgo_Logo.jpg?p=facebook","LogoHasTitle":"TRUE","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Custom Blockchain Builds","Featured":"","Color":"","Website":"https://emurgo.io/"}</v>
       </c>
     </row>
-    <row r="34" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B34" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Q11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"10","Project":"Digital Forest","Category":"Private Chains / Custom Solutions","Logo":"https://thumb.tildacdn.com/tild3436-6337-4865-b161-333632346432/-/resize/100x/-/format/webp/logo-white.png","LogoHasTitle":"TRUE","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Custom Blockchain Builds","Featured":"","Color":"","Website":"https://digiforest.io/private-blockchain/en"}</v>
       </c>
     </row>
-    <row r="35" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B35" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;R11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"11","Project":"PixelPlex","Category":"Private Chains / Custom Solutions","Logo":"https://icoholder.com/files/img/56e1e9d48c6496631c03ea11bd5ffd71.png","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Consulting &amp; Development","Featured":"","Color":"","Website":"https://pixelplex.io/enterprise-blockchain-development/"}</v>
       </c>
     </row>
-    <row r="36" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B36" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;S11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"12","Project":"Ernst &amp; Young","Category":"Private Chains / Custom Solutions","Logo":"data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPYAAADNCAMAAAC8cX2UAAAAq1BMVEX///9WVlX230ZKSklRUVCIiIfJycn24E3Dw8NbW1qZmZhEREJPT02Ojo2hoaHv7+/23j/13C313TZAQD9GRkX454P89dD78b7999v+++345n39+OD35Gz24VX78sH46In+/ff78Lf56pf67qv35HH89tT57KD++uj34l7888iAgH+1tbXs7Oz56pL67aj35G/b29tlZWRycnH12xa3t7bT09LHx8ZtbWw1NTTNVCKuAAAGTUlEQVR4nO2baUPaQBRFgcQNUNlE0aqgomLV2lbb/v9fVgEzGUjmZps973xOSI7zbiZ5MzYa9WN6emf6FvSzOO8PWqZvQjNnL4NBr9XaM30fOpm87i2dW3XSns4e+2vnGmmPPwPNpGuifbEOdKtO2p+B7m8610D79FvS2XftrUDXQvviZjvQ/mtPblMC7bu2INBea49PRIH2V/vippft7Jn25PYyq7j9084OtH/auQLtmXbeQPukPc0faH+0r370B4WdHdeeFwy0D9oP94UD7bx2uUA7rn11Vy7QLmvPr0sH2lntaoF2U3s6qxhoF7UlBNo57fk1aBB5qv1w35Lr7ID2xhJOXbQXUgPthvaZ7EA7oK0i0LZrKwq03doL4RKOv9pniTVZ/7UVB9pKbfWBtlBbR6Bt09YUaKu0J6+6Am2PttZA26KtOdBWaOsPNKM36JlxjrdBahbuDQb9vZPXsQHn6amBQK+Ee3f3VxcGjBto15RC437/8WU2n5ox/gw02jWlRHjQvzx5XTyYEm5k75qSLmywphmFNllUNDZc0ww9gf6q6dvxxLTvkhKbLEoJ21DTEcoDvazpgR01zVAaaLtqmlF011RBYZtqmqEq0Kua/vYyO5uaNkxSeZOFQNjGmmZcyQ60vTXNkBxom2uaITPQttd0hLRAr4RbVtc0o+w2yISx/TXNGFffNbWu6Wvra5pRddfUuqbPnajpiGq7ptY1feNITTPK75pyrqYZJXdNRTVttNFTllKBdrSmI4ov4bhb04xiu6acrmlGkUAvhT9r+tTRmmbk3mSxGuJHp2s6Il+g/ahpRo5A+1LTjHnGmqxHNc2AgfaspiNAoL2raYZgk8VXTc/mHtU0I22TxXozwLnZhVOFTBKBXtX0Dx9rOmIr0FFN+/ScTsIF2veaZrBAs5o2fUfqWe+aYs/pqen70cEy0P2a1DRjcff79+Du5tSh5mVl5teXJ7f1qOmYybhOQ0wQBEEQBEEQBEEQBEEQBEEQBFE3Pp52CvJ0nOtUeNVndGpbvXVjtxMWJGBGB13xUZ0/6KqHgfjM4Zt668Zu0CwKu6+PDjjqAFz0eSg+L8R1Yk47/Bmd/BSKjwr2xRfdAed1jsXnGdWOjY7BqDVD4TXRYAffdViX0m52o7OPukDgXXRNVCRNLdYltY+i04F2MxBc8g08Eka7Fms3h1EA98Hponr9JR7s8Jce65La4VN0/k9QsKPUK6LBHj5brd3sRJPYG3g8xVng+Sv+Q3UPNVmX1W6ySQxORikX/BiJj08vD5u02XP6GNRsN+U9E6RC0+RVRTt+Th+BXxgm3j12wWCjFztbtOORBFUeJsJ6ID648+GAdvzU/QMGcPvRDCa8eHawWjueY8GzefvDAvxeMhBWasdFiSaxzeF+F18tfbazUDt+BB2C4d4oXfTFptO6knY84YBJrMN1DcBgo+9UvdrZjZZh9Cvfwa9wr9niD5f4G960drhzmMUO+7YU+ny+erF5CfxxtHSScmmPijxZwVtI+Dc6CJSElk4Sf79ytNHXZPQNDXoSejpJHLK0UaPoK7figgi0Tl5LZGk32uKxDFbNYzDY4rabKqRpg+SuGmSg3airk8QhTxs8p5dfqeJqiJ95+pCnjT6uQjTY2jpJHBK1wSJJsN8WPun1dZI4JGrD/jeY31RoZSFTG01iQjR2kjhkaqNJTIjGThKHVG04iQmuorGTxCFXG3xZpqO1k8QhVxsukqRhYvJaAj4820eQdtq3IlrpSSGtka4F1GboQjqpr5RwETeB3k4SR/mmUpCqDVf6Ez8hXAJXjWxtuNK/he5OEod0bbjSv0lHcyeJQ772Plgk2UB7J4lDvjZaJNlA6zLIFgq00SIJf772ThKHAm240h+jv5PEoUIbrfQzRnB3pmpUaKP+UoSJThKHEm20SPKF7mWQLdRoo60aK4x0kvgbVKKdOYkZ6SRxKNLO6C+Z6SRxKNJuHMJ3VDOdJA5V2mDFy1gniUOZds6VfkMA7VEH8i/jfUO8SDIy1EniAL20ir8s7h4bT7b0FiIHaZM2aZuEtEmbtEtD2qRN2iYhbdJe0n3fz09KH9RR7WY3yM0wZWHHVe0CpP1bD2mTNmmbhLRJm7RJm7RJm7Q3IG3SJm2TkDZpk7aP2v8BLB7IjW+vvv4AAAAASUVORK5CYII=","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Blockchain Consulting","Featured":"","Color":"","Website":"https://www.ey.com/en_us/consulting/blockchain-consulting-services"}</v>
       </c>
     </row>
-    <row r="37" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B37" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;T11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"13","Project":"Eluv.io","Category":"Content Management / Media","Logo":"https://mma.prnewswire.com/media/1431747/Eluvio_Logo.jpg?p=facebook","LogoHasTitle":"TRUE","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Distribution","Featured":"","Color":"","Website":"https://live.eluv.io/"}</v>
@@ -25331,67 +25334,67 @@
       <c r="XEK37" s="9"/>
       <c r="XEL37" s="9"/>
     </row>
-    <row r="38" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B38" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;U11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"14","Project":"Platz","Category":"Content Management / Media","Logo":"data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEhMWFhUVFxUaFRUYFRoYGBsaGhUWHRgYIBYYHSggHR0mGxUVIT0hJSorLi4uFx8zODMsOCgtLisBCgoKDg0OGxAQGy8mICUtLTUyMC0tLy0tLS8tLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARwAsQMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgMEBQcIAgH/xABMEAABAwEFAwUKCQsEAgMAAAABAAIDEQQFITFBBhJRBxMiYXEyQlKBkaGxwdHSFzNTVHKSk7LwCBYjNWJzgpSis+EUFSQ0Q9NjdPH/xAAbAQACAwEBAQAAAAAAAAAAAAAABAIDBQYBB//EADkRAAEDAgMECQMBBwUAAAAAAAEAAgMEERIhMQVBUWETcYGRobHB4fAiMtEzFBUjNGJy8QZSgrLi/9oADAMBAAIRAxEAPwDeKIoptZtHzIMUR/SkYu8AH19WmfBSYwvNgq5ZWxNxu0VPaza8WY81CGvl74mu6zgDTN3VVa+vDa63SE1tD2jgyjAPG0A+Uq0tJrUnEnEk4knU1WOtCfbE1oWI6qklde9hwB+XVaXaO2/Op/tX+8rSTaW3fO7R9tJ7ytZlVua5prZM2CBtXHEk9y1urnHQenILwho3BXse86E96pv2nt/zy0fbye8rd+1Nv+e2r+Yk95Te/eSaeKEyQTCd7RV0XN7hI13TvGp/Z17cFrF6gMLtEyQ9uvmsi7aq8Pntq/mJPeVxde3F4wSslFqmk3TjHLK97HDVpa48NcxosA5TTk42CfeD+emBbZGHpHIykZsadBoXDLIY1LfHYQM1Y3ETkt4bKbQR2+zstMbXNDqgtcMQ5po4VycAajeGHjqBl3vABJNAMyVSs8McUYYxrWRsaA1oAa1rQMABkAAFGr4vUyHdbhGP6u3q6vwMWvro6VmI6nQbz7DUn1stGCB0psNN5X29L5c51I3brBqCQT19nV+BYf7hN8q/6x9qoFeVxclbUSOLnPNzwJA7BuHw5rcjhYwWAVwbxm+Vf9Z3tXz/AHGb5V/1ne1UCshdV0Om6RO6wa0zPAe1WwOqpnhkbnE/3H8qTzGxuJ1gFa/7jN8q/wCs72r5/uM3yr/rO9qvb3uV0Q3gd5mppiO3q61iVKY1MDyyRzgf7j4ZqcRjkbibayv4b6tDcpCep1HenFZq7domuIbIAw8Qej4+Ciq+K6n2jUQnJxI4HP3HYVGSkil1FuYy+dq2WiimzN7GohecD3B4Hwew6KVrraWpZUR429o4FYE8DoX4SiIiYVKx192rmYJJBmBh2k0B8Va+JaotJrUnEnMnEk6mq2Nts7/j04vAPkJ9QWubQn6UfRfmue2o8mcN3Aed7+Q7ljLQsdaFkbQqd33ZLapRDC2rneRo1c46Af4GJAVx0uqIgTkFZXTdMtrmbDC2rjmT3LW6ucdAPYBiVvDZbZyGxQ83EKuNDJIR0nu4ngBo3TtqT62a2eisUXNx4uNDJIR0nn1AY0GnaSTmkhLLiyGi36en6MXOqLVvKfye8/vWyxt/TZyxAfGcXtHynEd9291tJFU1xabhXuaHCxXO3J3sG+8JOdl3mWVh6TsjIRnG06Di7TIY1LegLPBHFG1jGtZGxoDWgANa0DAUyAAVXBo0AxJ0HEn0lRe+b1Mh3GYMH9X+OpJ7R2gymZjdruHH5vKtpqYvNh2lfL6vUyHcZgwa+F19nV+BikRcHUVElRIZJDmflhyHubkkreYxrG4Wr4V5X0rJXPdRmO87BgzPHs9q9p4HzvEcYuT8ueACk57WNxO0S57qMp3nYRjXj1D2qXMYGgACgGAASOMNADRQDIKou4oaFlKywzJ1PH8Abh6rEqKh0zrnTcF4e0EUIqDmFEb9ucxnfZjGf6ers6/wZivD2AggioOYKlWUbKpmF2RGh4e3EIp6h0LrjTeFrhfCsxfl0GI77MWH+k8D1df4OHXHTQPheWPGY+XHL5qujikbI0ObogPBbAu6085Ex/hDHtyPnC1+plssf+OOpzvb61q7EeRM5m4t8iPyUjtRt4g7gfMewWZREXULCUc22/64/eD7jlrq0LYm2vxA/ej7jlA4bHJPII4xVzvIBq4nQBaUH6a5vaQJqrDgFjrHd0lokEUTaud5ANXE6AfjEgLa+ztwxWOPcZi91DI8jFx9TRjQadpJPq4bljsse63F7qF76YuPqaNB6ySswlJpseQ0WtR0nQi7vu8vm8oiIqE8i8uNMTkEJpiVF76vbf6DD0BmfC/wk62tjpY8b9dw3k/NTu7gboYTK6wXy+r25w7jO4GZ8L/CxCIuEqKiSokMkhz8uQ5LajY1jcLURFkbouwzGpwYMzx6gowQPmeI4xcn5c8AF694YMTtEui6zKanBgzPHqClscYaAGigGQCRRhoDWigGQWoOVDlC3t+xWN/RxbNM058Y2EaaF3iGq7vZ2zmUzMLc3HU8fwBuHqsOqqi/M6bgtqXbekFoDnQyMkDHuY4tNaObmD+MQQcir9cubJ7Sz3fOJoTUGgkiJo2Ro0PAipo7QnUEg9G7OX9BboGzwOq04OacHMcM2OGjhXx1BFQQVpPZh6ktHIHdayyIirVipvaCCCKg4EHJQ+/LnMR32YxnytPs6/F2zRU3sBBBFQcCDkQk6yjZUswnXceHsd49bJinqHQuuNN4WuFMtlfiP4nepYK/LnMR3m4xnytPX1df4Od2V+I/id6li7LhfDWFjxYhp8xmORWrXSNkpsTTlceqzKIi6ZYSwG1NkfLG1jBVxkHYBuOxJ0CurkuhlnZRuLj3b9SeHUBwWVRTMhw4dyoFOzpTKdbAdX+fbiiIigr0XwoVF76vbfrHGejqfC/x6UpW1kdLHjfruHE/NTuVsMLpXWCX1e2/VjD0NT4X+FhkRcJU1MlRIZJDn4AcB85lbccbY24WoiLIXTdpmdU4MGZ9nX6FCGF8zxHGLk/OwBeve1gxO0S6bsMpqcGDM8ezrUuijDQGtFAMgkUQaA1ooBkFUXc7P2eykZYZuOp4+w9zmsWecynlwWoOU/lBrvWOxvwxbNM0+WNhHkLvENVqUrb3KfyfV37bY2Y4unhaM+MjANdS3XMY1rqElbcVrZLLlxYs14KzGyW0893TiaHFpoJYiaNkaNDwcKmjtK6gkHDleCpkXUQuqdnr8gt0DbRA6rXYEHBzXDNjho4V9BFQQVlly5sdtVPd0/OxdJjqCWImjXtHocKmjtOsEg9HbP35BbYG2izu3mOzGTmuGbHDRw4dhFQQUo9mFOMfiHNZVERQU1SkYHAgioOBByKoWCxthaWNOG8SK6V0rqrxFAsaXB1sx6qWIhpbfIoiIpqKIiIQiIsBtJbS0CNp7odLs0Hjx8iXqqltPEZXaDxO4fNFZFGZHhoVrfV779Y4z0dT4X+PSsMiLgamqkqZDJIc/ADgPnNbkcbY24WoiK/uq7nSu4MHdO9Q6/QoQwvmeI4xcleveGNxO0S67tdK7gwZu9Q6/QpdDE1jQ1ooBkEghaxoa0UAyCqrudn7PZSMtq46n0HLzWLPOZXckREWgqEWoOVDk97u22NnF08LR5ZGAeUt8Y1rt9FJri03Ci5ocLFchEryVtzlS5PN3fttjZhi6eFoy4yMA8pb4xqtRlNtcHC4SpaWmxXgrP7GbVzXbPzsfSjdQSxE0a9vqcMaO9RIWAXwr0i6AbG66vuG+obZA2eB28x31mnVrho4cPUsoudOSLaN1ktzInO/Q2kiN4rgHnCJ4HHeozsf1BdFpR7cJTTHYgiIigpIiIhCIiIQihl/PrO/qoP6QpmojtFCWyl2jwKeIUPo86w/9QMLqUEaBwv3EeZHenaEjpD1FYtERcatZVrFDvyNZWm9QEqbwQtY0NaKAZBQNjiCCDQjEHrUsui9BKN12Dxn19nsXR/6fmha50ZyedDxHDr3239iQr2PIDhoFlURF1ay0REQhEREIRc68r10Q2a8CIAGiWJsjmDJr3PeDQaA7oNOJK27t7tpFdsWj7Q8Hmoq/wBbqZMB8ZOA1I51vO3y2iV80zy+SQ1c46nIYaAAAADAAAK6FpvdUzOFrK1K8lel5KYVC9Mmcwh7e6YQ5va01HnAXYK5Y2Hud1rt9nhAqN9r5OAjYQ59e0Dd7XBdTpeY6JiLRERFSrUREQhEREIRWN52ETM3ciMWngVfIoSRtkaWPFwdVJri03GqgE0TmOLXChGYXhTG9btbM3g4dy78aKIzQuY4tcKEZhcLtHZz6N/Fp0Poefn3gbNPUCUc/ngvC+xvLSCDQjIr4iz0wpddF6CYbrsHjMcesLKLX0by0hzTQjIqW3RegmFDg8Zj1hdhsnavTjopfv3H/d/689eKyaqlwfW3TyWUREW6kkUU272yiu6KuD53g81FX+t3Bg8+Q4j1tvthFd0VTR8zweairn+07gwcdcgueb2vGW0yummeXyPNXE+YAaAZAK2OPFmdFVJLhyGq8XreMtolfNM8vkeaucfMANABgAMlZFeyvBTKVC8FVLLZnyvbFEwvkeQ1jGipJOg/GGa+2azPle2ONpe95DWMaKkk5ALoPk42DZd7Odlo+1PHSdmIwf8Axs9bteygUHvsFaxmJVeTbYht3QlzyHWmUDnXDJoGUbeoHM98eoACaoiVJJzKaAsiIi8QiIiEK2ntLWbu8abxAFeJBNPMVcqOba/9cfvB9xytdmdoN6kEx6WTHnvurt4ce1XdCTHjCSNY1tR0LsshY8zuPp3cFLURFSnUWNvW7WzN4OHcu9vUskirmhZMwxvFwfn+DuUmuLTibqtfzROY4tcKEZheVL72u0StqMHjuT6j1KJyxFpLXChGYXDbQ2e+jfxadD6Hn4EZjeBtQTiUc/ngvCq2Rry9ojrv1wovMELnuDWipOQUuuq7mxN4uPdO/Gi92ds99W/LJo1PoOflrwB8qJ2xN58Pm5XkW9ujepvUFe3VR7bXayK74t40fM8Hmoq4k+EeDRx8QXrbLayKwRbzulK6vNRVxceJ4NGp8Wa5+vi85bTK6aZ289+Z0A0aBo0cF9AiivmdPNc7LLhyGqpXveUtpldNM8vkecT6ABo0aBWDlUcqbk2lRmvBX2z2d8j2xxtL3vIa1rRUknIAL3BA6R7WMaXPcQGtaKkk5ABb85ONgmWBnPTAOtTxicxGD3jTx4u1yGGdb3BoVsbC4r7ycbBMu9nPTUfanjpOzEYPeNPpdr2KdoiVJJNymwLCwREReL1FSjla6u6a0JBpxGYWB2gvrdrFGelk5w73qHX16duV1sr8R/E5JNrWPqegZnYEk8xYW8c+Gmt7NGlc2DpXZZiw69/47+F8yiInUqo3tp8QP3o+45QOVTzbP4gfvR9xygci06b9MLmdqfzPYPVS7ZTaXfpBO7p5RvPfdRPHgde3OZLSkqm2yG1G/Sz2h3TyY899+yevgde3NeeC31NT9BXYrRyHPcePI8+B36a2vNUREotdFjL1uwSiowcMjx6ismiqmhZMwxvFwfnfwO5SY8sOJuqxt1Xa2JvFx7p340VhtftRFYIt93SkdURRVxceJ4NGFT6yAvW1m0sVgi339KR1RFGDi4+powqfSSAdC3zectpldNM7ee7yAaNaNGjh6SSVdS0rGMDGCzQl6mpIJzu4qjfN5y2mV00zt57szoBo0DRo4eupWOcqzlRcn1njPNUnL5FC57msY0uc4gNa0VJJyAAzKqRxOe4MY0uc4gNaBUkk0AAGZJW9eTfYJthaJ5wHWpw7REDm1p1cdXeIYVLq3vDQr42FxTk32CbYWiecB1qeMdREDmxp48XeIYZz1EShJJuU8AALBERF4vUUcv8AvrdrFEelk5w73qHX6O3L7f19blYoz0u+cO96h1+jtyiywdp7Tw3hhOe88OQ58Tu0GemtQ0V7SSDqHqfQb9dNSmWyvxH8TvUoaplsr8R/E71JLYv8z/xPm1NbS/Q7R6rMoiLq1z6wW1sO9ZnnwC0+gHzErXki21NEHtcx2IcCCOoihWsL4u98EhY8fRdo7rHs0T1I/ItWBteFweJRpa3bc+d8ufWsTIrWRXUitZE0s1qn2xm1fOUs9od+kyZIe/8A2T+1169uc3WgZFsTYrbASUs9odSTKN5Pd/sk+F169uaM8Nvqat6irMX0Sa7j6H879+es6WC2p2jisMW+/pPdURxg4uPqaMKu06yQD62m2hiscW+81ee4jB6Tj6mjV2nWaA6Pvq9JbTK6aZ2853kaNGtGjR7SakkqqKLFmdEzUVHR/SNfLrVvfV6S2qV00zt57vIBo1o0aOHacSSVjXKs9UXJy1lnA3zKpOVNsZcQ1oLnOIDWgVJJNAABiSToqoYXENaCXOIDWgVJJNAABiSTot18nOwgsYFotABtLhgMxECMQDkXkZu8QwqXVveGjNMRRl5sF85ONg22JotFoAdanDAZiIEYtByLyM3eIYVLpleFubC3edn3rdSfxqvtvtrYW7zvENSfxqodbLU6Vxe846DQDqXO7U2oKcYW5vPgOJ9B26Ldo6PHyaPFSu6bzbM3g4d038aLJLXkMzmODmmhGRUwuq9GzNxo1wzbXzjiPQq9l7TFQOjk+/8A7e/Edo4CyrpDH9TPt8vZZNR+/b53KxRnp987weodfoS/b5DAY4zVxzcO97Ov0KLKnae1MF4YTnvPDkOfE7tBnpdRUWK0kmm4ep/Hflr8K+L6vi5sLaCKbbPQ7sDK61d5Th5qKJ3bYjNIGjLvjwbqVPY2AAAYACgC6DYcBxOmOmg8z3WA7SFlbUlGFse/X8KoiIujWMix963ay0Rlj/4XDNp4j2LIIvQSDcKLmhwLXC4K1DfN2yWd5ZIPou0cOIPq0WIkW77RCyRpa9oc05tcAR5CsDati7G/EMcz6Lz6HVATjaoW+oLGk2W4H+GRbne/fnfwWpZFayLbLuT2ynv5vrN91eDyc2Tw5vrN9xe/tLOaBs+YcO9aheFbvW4jyaWPw5/rs9xeDyYWPw5/rM9xeftDFa2ikHDv9lpl6pbpJAAJJIAAFSSTQAAZknRbo+CyxfKT/XZ/61kdndhLJY5eeZzj3gUaZC127xLQGihIwrwypU1iZ2q1tK++dljOTvYUWQC0WgA2gjotzEQIyHF5GbtMhqTOpCaGgqaYDKvVVVESriXG5T7WhosFBbxtD3vJkwIw3eHVRWimluuqOWjnVB/ZoK9tQVbfm3Dxf5R7q5CfYlU6RxDg651JzPXl7cOC2oq2LCAcuSihXkqW/m1Dxf5W+6n5sw8X+VvuqH7jqv6e/wBlaK+Ebz3KIIpd+bMPF/lb7qfmzDxf5W+6pDYlV/T3+yl+8IOPgogq9hsMkzt1grxOg7T6lLIdn4G5tLvpOPoFAsmyMNFGgADIAUHkCap9huveZwtwF795AsqZdptA/hjPn+Fa3bYWQs3W56u1J/GivkRdGxjWNDWiwCyHOLiXONyUREUlFEREIRERCERFr7lc2mtNgis7rM8NMj3h1WNdUBtR3Q4r1oubLwmwutgoucfhXvX5dn2LPYt2bBXpLarBBaJiDI9rt4gAA0e4ZDAYAKToy0XKi14cclIkRFBTRERCERFg9rtpIrvs5tErXOG81oaym8S7hvEDIE+JegXQs4i1eeW2xU/61qr2RU8vOrYVz3g20QRTtBDZo2SNBpUB7QQDTCuK9LSNQvA4HRXyIiivUREQhEREIRERCFFb75QLusczoLRM5sjd0uaIZXU3mgjpNYRkRqvF0cot22mZkEM7nSSEhgMMrQSATTecwAYA5lab5Yv1taPow/2WKHxTOYQ5ri1wyc0kEdhGITAhBF1QZSDay6Q2h5SLvsbjG+UySN7qOFu+QeBdUMB6i6qx13cr92yu3X89DXvpIxu+WNzqdpotSWbk8vJ8ImbZju0qGlzQ8jiGE18RoepRkgjAihGYOBHVReiJh3rwyuG5deWa0MkY18bmvY4Atc0hzSDkQRgQtW/lA/EWX96/7gUb5Ftp3wWoWJ7iYbRvbrTkyUAkEcA4AgjU7p41kn5QPxFl/ev+4FBrcMgCm5wcwlaUXS3JR+qbL9F/9165pXS/JR+qbL9F/wDdepz/AGhQh1UjvC3xQMMk0jI2DN73BrfKVCLx5XrsiJDDLNT5OOg8spbXtFVA+V+4rw/1LrTMTNATSEsB3YmnJhZjuk4dLvjwwAx1zcll5WhgeWMhachK4h1PoNaSOw0Ki2NlrkqTnuvYBbDs/LTYHGjobSweEWRkeRshPmUxuHaix20Vs07JCBUsxa8DiY3UcB10XPO1Ww9su8B87WmNxoJI3FzQdAagEV7Kdaj9mtD43tkjc5j2GrXtNHNPEEKXRNI+lR6VwOYXXksgaC4mgAJJ6hmtEcru2tmt7bPFZHl7GOe+Qlj2dKgaygeBXB0nlC2PsVtI68bsdI4fpmtkilDRm8MwIH7TXNNOJI0XO9ru6aDdbNFJESKgSMcwkcQHAVUYmZm+oUpXZZb1bre+y3KXdkFis0Mk7g+OCJjxzEpo5rACKtYQcRmCtELJWe4LZI0PZZZ3NcKtc2F5aRoQQKEdaue0O1VTHFui3z8LN0fOH/y83uJ8LN0fOH/y83uLRX5s275nafsJPdT82bd8ztP2EnuqvoWcfFT6Z3DzW9fhZuj5w/8Al5vcT4Wbo+cP/l5vcXP9uuyeCnPQyRb1d3nGOZWmdN4CuY8qtEdC1HTHgukrFymXZNKyGOdxfI5rGAwTCrnEBoqWUGJGJUyXLvJ9dUtpvCziJpPNyxyyO0axjw4knr3aDiSuolVIwNOStY4uF0REVamubuWL9bWj6MP9liil2Cs0Q/8Akj++1Svli/W1o+jD/ZYohZptx7H0ruOa6nHdINK+JOs+0JN33Fdf0XLvKJC1l52xrQAOdJoOLmtcfOSVuIcr12czzm9LzlK8xzTt+tO536c3496i0RfV5OtNoltDxR0r3PIGIFTg2utBQeJVQtIJJCtmcCFdbJSFtvsZHzmz+eZgPmJW1fygfiLL+9f9wLXPJrdptF52ZoFQx4ld1CLpA/WDB/EFsb8oH4iy/vX/AHApO/Ub84qLf0ytKLpfko/VNl+i/wDuvXNC35s5aHx7NF8ZIe2y2ktIzBBlxHWM/EvJtB1oh1VptnytxQPdBY42zvaSHSvP6IOGYAGL6HrA4EqCWnlYvVxqJo4xwbCyn9YcfOoSAp/yO2uwxWqR1sdGx243mHyEBoNTv9J2AcRuU8dF7ga0aXRjc42vZY2++UK8LTZ32W0825km70jFuv6LmuBaWkDNo0KiS3vyq7UWA2GWztljlmkDQxsZEm6Q5p3iW1DaAa48FohSjNxpZReLHW63V+T679DaxpzkZ8rD7AsT+UAP+TZf3T/vhZP8nz4u2fTi+69WP5QUZ56xu0LJh4w6M+tVj9X5wVh/T+cVqZdT7C/q2xf/AFoP7TVywt1bE8qNhhsUMFpL2SQsbHhG54cGCjXAtBzAGBpjXtUpmkjJRiIBW2aLCbV7RQWCzmebsYwU3nv0aPboKlerz2iggsf+teTzW4x7aDpO36bjQPCJc0ePFc37W7TT3haDPMaAVEUYPRjZXuRxJwJdqeAAApjjxdSufIGqjtHf81undaJz0jg1o7ljdGNHAec1Kp3Dc01snbZ4G7z3a6Nbq9x0aPYMyFj1sTYbb6x3bDuNskj5X0Msu+2rjoBhg0Y0HacyUy64GQSwsTdxW4NjtmIbvgEMQq44ySEdJ7tSergNApAtS/DfD8zl+0b7FWu/lgbPIyGKwzPkeaNaJG1J8mAGdcgASljG/UhMh7RkCtqIrH/UT/JM+1P/AK0VamufOWL9bWj6MP8AZYohZot97WVpvOa2vDeIFfOplyvwuN7TkNcRSHENJ/8ACxRe6rO/n4eg742LvT4bepOs+0JN33FSK9+TS8oHECDnW6PiIIP8JIcD4vGVRu7k6vOZwaLMWDwpHBjR4ql3kBXTSKjpnK/oWqH8n+xMd2xuJdzk8lOckpQUGTGjRo8pPiAxfLBs3abdFZ22aPfLHvLhvNbQFtB3RC2IirxG+JTwi1lzZ8GF6/Nx9rH7y3dsHdMlnu6CzWhoD2teHtqHDpPeaVGBwcFJUXrpC4WK8bGGm4WidreSK0Rvc+w0liJJERcGyN/ZBdg4DiSDlnmoc7Yy8Qd02Oav0KjyjBdTr5RSEzhqomFpXPuzHJNbZ3A2kf6eLWpa6Q9QaKgdpy4FWM/JbejXOAgDgCQHCRgBAOBoXVFc6LpFEdM5HRNWueR7Zq1WFloFpjDOcdGWDea6tGuB7kniFn9vdk2XlZ+aLtyRh3on0rR1CKEatINCOw6KTooFxviUw0AWXM948m95wuI/0xkHhRua4HxEh3lCtYdhLzeaNscvj3WjyucF1Eis6YqvoWqA7SbOWmW44rExodO2Oytc3eAFYzHv9I4d6Vqz4Lb1+Qb9qz2rpFFFshbopujDlzd8Ft6/IN+1Z7U+C29fkG/as9q6RRS6Zyj0LVzf8Ft6/IN+1Z7VtTkz2Fbd8fOzAOtUg6RzDG/JtPpOp6gFPEUXSucLKTYw03CIiKtTXksBzC+Bg4Be0QhEREIRERCEREQhEREIRERCEREQhFibxvlkR3QN5wzxoB4+KyygUXTeN7vnCv1v8rI2vWy07WMiyc46nda35GoKbpYWyEl2g+eiy42kfXFgpwqfSstd15MmBpg4Zg+kcQvVqu9j2FlAOBAy61Z3fdAieHiSuBFMMaqMUe0YpgHuD2HU2At1aHLx4BDjA9hIFirq8rzZDgcXHJo9JOgWJO0r6/FjylYy9JC6WQnwqeIGg8wUqjsMfNhu6KbvqzSrKmrrZ5GwvwBnIG+ZAvcHW3ZpY6q0xxQsaXi5Pz1VO7b2ZNhTdd4Jxr2FZNQW7nlssZGe8POaHzFTpO7Hrn1cJL9QbX45XBVNXCIn/ToUREWslUREQhEREIRERCEREQhEREIRERCEWD2naS1lATicq8OpZxfEvV0/7RC6K9rqyKTo3h3BYDZZrhzlQR3GYP7XFWF53Y+N5LQS2tQRp/8AilyEJB2yI3UzYC43bex35kn51XV4q3CQvA13diiE18SyNMeGOFQDU+f1K92fu17Xc48UoDQHPHXqUg3BwC9ryLZTumbNPIXubplb89fXqh1V9BYxtgdVFr8u1weZGAlrsSBmDrgqIviUM5vDLPHep+OpS9ed0cF5JskiR0kEhZi1Fr/j8jcvW1Qwhr23sovcl2uLw9wIa3EVzPDBSpETtFRMpI8DM95J3qiaYyuuURETiqRERCEREQhEREIRERCEREQhEREIRERCEREQhEREIRERCEREQhEREIX/2Q==","LogoHasTitle":"TRUE","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Media Rights","Featured":"","Color":"","Website":"http://platz.co/"}</v>
       </c>
     </row>
-    <row r="39" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B39" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;V11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"15","Project":"ThetaTV","Category":"Content Management / Media","Logo":"https://s2.coinmarketcap.com/static/img/coins/200x200/3822.png","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"CDN Streaming","Featured":"","Color":"","Website":"https://www.theta.tv/"}</v>
       </c>
     </row>
-    <row r="40" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B40" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;W11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"16","Project":"MediaChain","Category":"Content Management / Media","Logo":"https://miro.medium.com/max/1200/1*YzD0QgNLQglut4f7YnVGbQ.png","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Attribution","Featured":"","Color":"","Website":"http://www.mediachain.io/"}</v>
       </c>
     </row>
-    <row r="41" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B41" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;X11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"17","Project":"IBM Blockchain","Category":"Content Management / Media","Logo":"https://pbs.twimg.com/profile_images/1377290601071190020/oHjDHdYI_400x400.jpg","LogoHasTitle":"x","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Advertising Truthfulness","Featured":"","Color":"","Website":"https://www.ibm.com/blockchain/industries/advertising-media"}</v>
       </c>
     </row>
-    <row r="42" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B42" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Y11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"18","Project":"AdsDax","Category":"Content Management / Media","Logo":"data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAbsAAAByCAMAAAD9J4/kAAABX1BMVEX///8BV5sASJSoAEiYH60ARZMAT5cAS5aSAKjp1e0AVZr/kQAAUZje5/CtFFcARJP26e4A5XL/mAB9765r7aPs8/joDl3/7tphMLX//filkNJkNbaOqchvkruEZMTuX4nw2+NMfK9p8K5Idarm7vTB0OEMXqD/vwDwgqChtM6ovNT/0Fr/1XFkjLhc76jn/PLI1eSEocQoZqO3yNwAOo5WgrL/0mU3bqfS3emkutOtmtaHo8WC8rrB+Nz/58r/4r//pjn/nx3/vHMAUKTSi0T/rEltY3b16d7/46b/7cefuNv/yTn/24cAL4r/3nL/8tXTrkNtd4H/xwC2OmyYKGjRj6dSS4zEaIvoxtOmAELs0dz0obj2s8XsRnnoAFTuapDLV4lrTI6ie6egNLOzZcJ6NqflzuqWfMxXHLG9rt5PR6x1Tr279tTV+uUAsIQYiJhD6o4Y536i88Q2q58AcpfbmU5lAAANE0lEQVR4nO2d+3vbthWGJSYibYSKclPqJlYTX6TETu1Ykh3ZdZZdvC3duu7WXdKuSXdts7Xbsm7//zPdiQPiIw9AiHISvD/liUASxEcAB+ccwJWKx+PxeDwej8fj8Xg8Ho/H4/GUz5PvLrsGHjuefu/Spe+/s+xavP40Ecbl32VzbcSlp6W+55tI97CmpXGkLb6OigeX+Ey0+0HJb/oGUhVVLY1jTeFmBEqf/fCaKT8q/VXfONqBXg0x0BQ+ivWF4x9fM+1313y/K84G0CNop4q2a0Dn6Ok7fJ6MxbvkjZXibCNBOqmiHTBiRidGT3wy6qR+leCC9ZCpCCooeqaP9Os7VyBzJabFUAet1nRmzetJc1ti2ZXhgKax8JQUQxNjuLekei+AQSNZ9xy+Fp8kUqUmr9D7yCCN0uv4Dx+9/5Pyqj+h2e8eDbb2TtMmlgEb0hAU1G1rwqBIJQnbQJZY7lECGSo/Td3vo3tDfuasehyarUYUxkLEYRCu29/GiXYf6/0XFDHo9u3rKXEKrJBaUv0uNFR+/r7Cg3tjfuGkajzagVS9qGM9VTnRrqFvKbXhwihouZhTgbkiNmYF6shQOfvlPUCJHW+3QeovQts2KVG7cT1rO5bPkECTWe1gWmCAbNFf/Xr52h2rrSWqlncqV7vRQ1qWDwGVlhthunTbRYbK2aMHKT4qe8xM+wxCyyYpXbtq0LV8SgJavAW745/BZAc8KiXbKjtRumINu4YvX7tkaLMHmSti9GPL0KPy4YNHJa4RdCuc2G7RuQTtzL1SacAaYGRxp+aTGefCo6KPhARWS6glaFcNinc8YK6IsFnpAUPlfHhU9rSehWjX5l7L0C52YK5sgY7X3dXMJyN0HhUbrlwpdHmorXesD/znsAztVL+xDXVkSyJftWHoB3D3kwsXPimgHgoeBzY3W4p21g+SgK4T8N+9Kw64e+HykAv24rWAMzaycTktRbuokAt2ChAJ8ZsLLrg81u631pUG0tlZmkvRLnQxfiHvip7fTZrdDb+3rfMxqrOILO62AO1ETEl3kCLO8wRgrmgJnfS6ab+7bN3vuqjfWdne7rUTvT3KUbWmVNmNdnV+d4927jrh2acj6T69a1tllEMzMpDN7+ZeO80KYLtFDXc32kFzJYULb8CEZ6O+98z2ahLfUGU0v10p2qnN7Eg7trmiTb215LPP7K+V85+E0geDjDoer2/FURr5Bint+l3tNVMO586AfO1osDvRbqeB7z+q3aC1k/FBMc2V8+FRGSK7fOIujYYo+TYS7V5Nv6In0tNmOo2izGsiF9oBL8gMEYe1Hl77oEAdvYcjj0phSCOE/RMyFmkyTCfs1TgvSbSrizyxE0u/gHaMKUsEA9T4MEAuY+ZR+cPzO5+blDeAfKhBXYlkgRlrizepy1fXg1y1w3kIfLHaDW8Zo7QAhrmi3asAef7i5s0XX5hcwYcsauKK4jUPtRkFe0x7TNYOJVrJD5srsGjtMtIC4IIp4Y93+Dy/OeLFQnpek1iZG2rqtvYbO+Cug4L8RCuZErXDyx+U35Dwpxc3jblvq08WJMIxjjTSutc0MwPb/5Bo18wfMcvVDkcn88wVYa7cgrQjduXYj0KrrvEUwsz8dPvMtUNBMPqsMrXTzwaVXO9K/Of7JnwxGTOtV99ZkCZojP6Hjm5JjuKcE27zSNrpo7tqc87HsRK0E1uoSTKHd2OPyp2RrbKQbteX+8Nkcjugg2Z6bGHpMLl2rh1rlC1Vu2oNNkrWLcxzVD6/f38hvY7qMG07Kk06iIfyN9LMtWtyhkxJpFK0g9nDGeaKbebjIiAurKlMNBSbDuKpvmuRoLxpol0AL5FIHrUYnxj1DWQ4W6G5cm48KkPapD9MbUr6nyKV+UC1E0GYxNci2r+AdiKItUTzBBl77eptzHon09maAL0rbnJU3EC62NwBRjtJKp+AtEA8IBNAm/RZvXZC5M4Z9tpl02EGOUBI08yjsmDo6DhroyP9f8+QGyDlnyDLQ712UX5kaFHayd9qlnZg0Bxla54X6Do8nLnx+3TkUxPoZO3Sq6Se7tOWteOkDi5ZuxNkWtmlPS4EupJBloWa+UAGntTwp429Eu0Ywa/lagfPL3Ky9cERZOaSjBIliNfFV6UbIFc7GFeSKK5dvzXoxGqSUsyzVTJc7ZzKlwI1p0QyHihBPGVOK6jd0LzJ/XgLajfafh3rViHyNVC7gyyfX+Qou6Io6yjnY5u69Gr0LYtqN+zhkdwjOkcpy7uYdu2Is0CH2mX6HoTdDhvn0ErK0xq1s5SvurB2VWVxHoc15WsupN0uL0SFtMvJmjgf5oqye0JOpKWeJcX/6kI7lYhmIRTRjhtdBNrlRqtqLvLnOWRtEFIE6uysz1F2KFDXn4V2FWy5TYljWbwi2qHNHypAu1xPu/VOfDNW/7KycnEV/aosQEWYoNQ/Iqs4G+3y/dfEgiugHStSqK/6iExDJfWwxXFl5eKQFdD1muwQquILstEOHYInN4m07iugHStLT1919eUQYqUELo61+6teu112tETJfLDRLmO5mzwkWefba8f/IrXarbN67dnFsljRawfOFNFCti/baFfZzW9TyYKz1+4gzyrKqDozraZa7fxtuf0u1/STEbJhbKVdpZX7RUtbxuy1Y093Wu3QidCpqq4umi8n853eWOmzX3KEvICw067Syk2lTpyjrnLaQzn0GtBxW6MdOkozBc71d8bqxWHn+1L/Gz/rZISc+WCpXWU3yHlk8hBHOQ/UPq4c5MVeOYYKvNg5q3CFwDAe5PaTjEBb7SrNo0b2XhLH2qVy3JpxZtV5hsrk1jDLrATaRkMm2b5srV2lUu/2AgLpiSbaHTO0SwcX97JiQOgMVC2Bm6M7rUBnO8C6Jt7OAtqNkM+erRPjwEQ7Ol3rtUtnl2TG79DZw1qE4LRywuqtD5wNs4YHUsjJbQW1o8g3M9EOxUCIdql+l6Ud21CZPtJoP/dXL9fWXv7d5AoMfxk0I/nOnGont6aJdnRPhAvt4CE4oEHCW3y+Wrs95KWbnqfkbcehBrR92SLnAWOp3Qk6K4DMdyZjJjqFMYQ7Z4I1NrfHrH2Q2xwc6NcUt3Y1KEG8+ZImO9do4HzMFIP1U8peR7G09NqlRT+C2qENMmELOjE6/7htxtotA4UgjI1a6jI38fOTHD815Z3MQ/nakWNFgXYkwjEJc6hdIfmEyPpOzZKq0z2+8k/AUBklQqMeWa2+x+XrsXYvwVLbDMYGSZz5QOI5IqpuJQwCmnk2G1EPBltaaHIC0i6f5EoalAz25IGkSz5Goh064GE8ZaIpz8C7cns4bL58j108ix6Y6Vml1CgLSuYZNs8sZtsP9DsQaHl77ZJpV8lYiCWvmDKDE+3AjupJnBWdc6gm8mRx6/bXbsxMJdsBDW2gd3IdttIhjjznaZI9b6zdfNDn+xzkt0Zb7qYrcLTyW0aOu5rtAIqpEk97ET5/TH21+Y152gFftMmD8MF2KRrwRZP7Tj1fcKdvYHW0byGQBalCfbMzk5sdgUjW86xLRDh/sKF20jqZdUDK+GlSn0HLgPlR9TDsn1S5JJq0afDBU8r25Zn/lReglM08lnaSv9tQO3kzKjfVSFrdIENFysJAEQYXeym/uX79n+zCyoZxfNiyMgA1prMK+nsBCtJIxtIO5TzkP0iedrhn8UnrIuRQkTZKQodZ8VPhXl0d8phbekNZmOOS+u3LTdaBVLKrnaNdLIVVDP+2hdx+Td610jCL1CbmNzLQRO/G9ULcuDqG2fMUR0HWWcvK9uVZ5sMJxyAIpegZQzshJ4EaaRdRrzArCiclWaIzOWikAGaynP3rqguYHY82pMiabpXty/MgXn7ySTWWrVeGdg3ZQWOiXaQmmW8wPhRp/yZKClQidPCTOHOi3XWedsq21sztcDS6nnTRVo45J2iSeq52okH8xnztRCM95OceMhgKKYGN+9fpobny7xtFeDXR7huedsqQmRkA3kPbl/thhE93iyNlq1OOdnHQoVM+828XirDW0+0Ha/cCnFwhwob8uSLTJnWQCsyYLmiu/Gck3Q1e2f4hyTo4zNyTpBaWftrdiGqBjpo4Upesym2U8vGR+v18PPkl6wTa4XXR4BQ123F3EIDa9bokew1opxmOUHZW0cOjH7969S2zaLNOyS6dWXi7rkPzMajPzCtfrx+POBjT7k+Z+ZSH/2wfaK9jPJSWOQadSbfNDpor6RivpwSQoaJ1z6OdeefpxJy3B3j6lD6TCO1m0tp7Dx8utu5vO8hQARl8+K8Ypi2mx/v7+0zj0WMB/GOgKLaDToAQnYcKj/c3Nzf3v1Pq67xNmP8xULgVLfrvPmVzQqnv8zZhNH1NgCceNTZ17Jf4Nm8V64c1PVlL3l4DXPM/3+9KZLuJyLoKXbNNprt3H2/6+e615dth5/PSvaY89Mp5PB6Px+PxeDwej8fj8Xg8Bfg/wDXfO5nnubgAAAAASUVORK5CYII=","LogoHasTitle":"x","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Advertising Verification &amp; Sales","Featured":"","Color":"","Website":"https://adsdax.com/"}</v>
       </c>
     </row>
-    <row r="43" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B43" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;Z11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"19","Project":"Spreedly","Category":"Banking, Custody &amp; Investments","Logo":"https://media-exp1.licdn.com/dms/image/C4E0BAQEv0kgdwywnHA/company-logo_200_200/0/1553202883371?e=2159024400&amp;v=beta&amp;t=zlN4muIyNDZ_xE_rWMth2ETaOyeEgDuyBZ3-mrCPBSg","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Payment Processing","Featured":"","Color":"","Website":"https://www.spreedly.com/"}</v>
       </c>
     </row>
-    <row r="44" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B44" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AA11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"20","Project":"BlockFi","Category":"Banking, Custody &amp; Investments","Logo":"https://res.cloudinary.com/crunchbase-production/image/upload/c_lpad,h_256,w_256,f_auto,q_auto:eco,dpr_1/oxrxulbetykqjbwjr0fn","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Loans &amp; Accounts","Featured":"","Color":"","Website":"https://blockfi.com/crypto-loans/"}</v>
       </c>
     </row>
-    <row r="45" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B45" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AB11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"21","Project":"Ledger","Category":"Banking, Custody &amp; Investments","Logo":"https://www.ledger.com/wp-content/themes/ledger-v2/public/images/ledger-logo-short.svg","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Secure Personal Wallets","Featured":"","Color":"","Website":"https://www.ledger.com/"}</v>
       </c>
     </row>
-    <row r="46" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B46" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AC11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"22","Project":"Paxos","Category":"Banking, Custody &amp; Investments","Logo":"https://paxos.com/wp-content/uploads/2021/07/PaxosHomepageFeatureImage_R1-2.png","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Hybrid Blockchain Settlements","Featured":"","Color":"","Website":"https://paxos.com/securities-settlement/"}</v>
       </c>
     </row>
-    <row r="47" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B47" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AD11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"23","Project":"Kadena","Category":"Banking, Custody &amp; Investments","Logo":"https://assets.coingecko.com/coins/images/3693/large/djLWD6mR_400x400.jpg?1591080616","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Blockchain Settlements &amp; Development","Featured":"","Color":"","Website":"https://kadena.io/about/"}</v>
       </c>
     </row>
-    <row r="48" spans="2:16366" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16366" x14ac:dyDescent="0.5">
       <c r="B48" s="9" t="str">
         <f>"{"&amp;CHAR(34)&amp;"ProjectID"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE1&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Project"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE2&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Category"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE3&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Logo"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE4&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"LogoHasTitle"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE5&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Founders"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE6&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Investors"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE7&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Focus"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE8&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Featured"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE9&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Color"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE10&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;"Website"&amp;CHAR(34)&amp;":"&amp;CHAR(34)&amp;AE11&amp;CHAR(34)&amp;"}"</f>
         <v>{"ProjectID":"24","Project":"Hedera","Category":"Banking, Custody &amp; Investments","Logo":"data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAQoAAAC+CAMAAAD6ObEsAAAAclBMVEX///8AAADY2Nizs7OmpqaKiorg4OD7+/ubm5vDw8Pu7u4xMTHp6ekbGxv09PTb29uSkpLMzMw9PT1OTk64uLhvb29aWlo1NTVGRkYZGRnPz89TU1N8fHwtLS1nZ2eoqKiEhIQkJCQQEBCenp5JSUlhYWE7CV9tAAAFOklEQVR4nO2d6XbiMAyFm0CTAmEt0G3K0k7f/xXnZCgKlKWyY/nKrb7f1nF0D0SWLDs3N4ZhGIZhGIZhGIZhGIZhGIZhGEEpR/2qGpVliX4QGGU+nyyWg+yA2cdiMs9/lyTjzuI1u8hgNZn+Cj2K9cdlFRqW6wr9pLLkt4PvVaBfx6RAP68U/XcHHXY8dEfopxYgX7nqsGORo588ML1HPyFqXqbopw/I/MFfiJpZD+1BIKazdkL8F+Mn/DKqZXshapbJB9e7MELUvKN9aUXR8iVxzEPCwWQSUoiaCdojT/otAugl/vbRXvkwDy9ETYJxNfifY88d2jNHSlb66ccK7ZwTowCrqsvMEsrRiqGkElk2TCZ7f5YVomaM9pFHBCUS0SKPoUQSWhRxlMgy9elZ/y2WFE/K48joSlE/NAPdOwT38ZTIsiXa22v8iamE6kR1HVcJxblZtODRoDWMOO/4tOcR7fN5NvGVyLJbtNfnmCKUyLJntN+nlMLZ6CVe0Y6fAvl71KiLqGOUElmmrXgRdZl5jLJFZw+nhLY3J2BJ0TBDe3+I0J4Hlzna/wMYqXnnE7Zq873F90MHaP8bOO7RYK4ULgZ60jLOfjkNlpBCzduCFT5otIQUaoLIC14KJZuHVXjP3A10NBvw9sxpuIwUOvbXtxqkUBFPmfuCNF5GikxDnxazyk3jhaTYxPf8BGbJhsYLSbFF+H4Md7eYDISkULCfzO25IgMpKfAxhNuRSAZSUsD3AUZSnrkboHfW2eUrshAzQB8OYLdnkoWYAfplwUrF4kjxgvC/oWQ32ZCJmMETtvWEl5UeeZYzIQP2FNjslF/095+DPQX2vdnVJMU6nF8e8DuO/OdgT/EnnF8esANIDCmwIYTf4e8/B3sKaN3boanCfxL2FENkNGVnIAdS9Da3HDaUdPPnQGYhfQ8puCdPaceLPwdyYWFSEA6dmmQjKAWy/8ah7YhsBKVA1vQcjsGQjaAUyA0Ak4JQ9q5A/kH4OfqPf236BFNuCTCxYOojRd7hQecb0pDCZ+HtDH8O5MLb0rEGS9IJK90Q/KMP/nOwp8AW9PhnCP3nYE+BLfN6FP+7PBq/2FNge3r5CwsyETMAn7Qsn/RIAd4o5J8OIgsxg3uE/wcoaipAn6djny4lCzED9EkIa0BqsLY0Qk2zIvpVwS96k4GUFAqavLc6pBgifP+CknZ3bC62Q8khCBWnx3j3P9FwGSkUNP7fKDkwhY8fNSqO0Sm5/4d14yqNFpFCy8UNrDyERotIgW51J+wgNsE5nl98wt5mrfYWjLGKbm3Ycv2TQdMtSIw7JiRR9KMAX/Ci4uQxAboqbQe6fPUF/o5hcMCng04AXDC5R9sVYXKfO/gOHdnHEaDrBHWkpMeA3pxqltyHQO5W1FC8OgNgcaFrSdEAiCLqosee6OvvDtrjy0S+0lzpi2JH1BtI0V0E1ym38ZRQ/vkDlwb4lrzpuCDtCtHCiNrg0RDpAzoKdou/J8pnlZJQIsrvIhEl5D/BpuA6MDayH+Z7VR87DpH8XOOL8vXECWJVrQ3aM3eErjlXtefBReKDvzMlzQPO2GegG8J+HHyQzGriLO/hlEDfkdea/iKMEMtU3xKHjANsIs5U1vg9mLaMJQNlG8StaCPGLMmlxBXGniXgRdph4zxlx7kI/NCFn3eRorpzSFkHkwRqdm0o1qyk9f6n6/DJuLO4sr86XHWnqeXhrSjz+WSxPFJk+7i67UyTqsuEpRz1q6KoRr/qh2AYhmEYhmEYhmEYhmEYhmEYRgT+AdjAVLy5z+keAAAAAElFTkSuQmCC","LogoHasTitle":"","Founders":"Satoshi, Ben Franklin","Investors":"a16z","Focus":"Asset Tokenization","Featured":"","Color":"","Website":"https://hedera.com/use-cases/tokenized-assets"}</v>
@@ -25413,154 +25416,154 @@
       <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>175</v>
       </c>

--- a/TheForest.xlsx
+++ b/TheForest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/next.forest-dapps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="14_{EDD8412B-BE75-4F5F-8CAD-DD0AEC15536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C3B5E6C-A5C6-4866-A191-32D6E1CC32F4}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="14_{EDD8412B-BE75-4F5F-8CAD-DD0AEC15536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC5A00A-6257-4A4C-9AD8-C65D6A8AC0F7}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{1A95C62F-7AAB-40F5-917B-077457EEA376}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="473">
   <si>
     <t>Project</t>
   </si>
@@ -1128,9 +1128,6 @@
     <t>Founder 1, Founder 2</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>https://nutshell.news</t>
   </si>
   <si>
@@ -1405,6 +1402,63 @@
   </si>
   <si>
     <t>Decentralized Finance</t>
+  </si>
+  <si>
+    <t>Kraken</t>
+  </si>
+  <si>
+    <t>Front Door, Exchange</t>
+  </si>
+  <si>
+    <t>/projects/kraken.svg</t>
+  </si>
+  <si>
+    <t>Our mission is to accelerate the adoption of cryptocurrency so that you and the rest of the world can achieve financial freedom and inclusion.</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://www.theforestdapps.com/</t>
+  </si>
+  <si>
+    <t>https://www.kraken.com/why-kraken/</t>
+  </si>
+  <si>
+    <t>https://ethereum.org/en/</t>
+  </si>
+  <si>
+    <t>https://solana.com/</t>
+  </si>
+  <si>
+    <t>https://www.avax.network/</t>
+  </si>
+  <si>
+    <t>https://minaprotocol.com/</t>
+  </si>
+  <si>
+    <t>ZK Rollups, Lightweight</t>
+  </si>
+  <si>
+    <t>https://www.binance.com/en</t>
+  </si>
+  <si>
+    <t>https://cardano.org/</t>
+  </si>
+  <si>
+    <t>https://polkadot.network/</t>
+  </si>
+  <si>
+    <t>https://kadena.io/</t>
+  </si>
+  <si>
+    <t>https://www.bigchaindb.com/</t>
+  </si>
+  <si>
+    <t>https://bcdb.modex.tech/</t>
   </si>
 </sst>
 </file>
@@ -1819,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACA47AA-AEB6-489C-9F19-E34652EE68E2}">
-  <dimension ref="A1:AF41"/>
+  <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1831,12 +1885,13 @@
     <col min="2" max="2" width="29.29296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.29296875" customWidth="1"/>
     <col min="4" max="4" width="20.1171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.703125" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.29296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.41015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.29296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.46875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.29296875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.9375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.41015625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.29296875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="20.703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="71.1171875" bestFit="1" customWidth="1"/>
@@ -1880,13 +1935,13 @@
         <v>217</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>206</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>218</v>
@@ -1916,34 +1971,34 @@
         <v>275</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>188</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>200</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.5">
@@ -1963,7 +2018,7 @@
         <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
         <v>360</v>
@@ -1972,34 +2027,34 @@
         <v>361</v>
       </c>
       <c r="J2" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K2">
         <v>400000</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>363</v>
+        <v>462</v>
       </c>
       <c r="P2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R2" t="s">
         <v>381</v>
       </c>
-      <c r="Q2" t="s">
-        <v>381</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" t="s">
         <v>383</v>
-      </c>
-      <c r="T2" t="s">
-        <v>384</v>
       </c>
       <c r="U2" t="s">
         <v>186</v>
@@ -2008,7 +2063,7 @@
         <v>187</v>
       </c>
       <c r="W2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X2" s="13">
         <v>100000000</v>
@@ -2055,7 +2110,7 @@
         <v>359</v>
       </c>
       <c r="F3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G3" t="s">
         <v>360</v>
@@ -2064,34 +2119,34 @@
         <v>361</v>
       </c>
       <c r="J3" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K3">
         <v>400000</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>363</v>
+        <v>463</v>
       </c>
       <c r="P3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>380</v>
+      </c>
+      <c r="R3" t="s">
         <v>381</v>
       </c>
-      <c r="Q3" t="s">
-        <v>381</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" t="s">
         <v>383</v>
-      </c>
-      <c r="T3" t="s">
-        <v>384</v>
       </c>
       <c r="U3" t="s">
         <v>186</v>
@@ -2100,7 +2155,7 @@
         <v>187</v>
       </c>
       <c r="W3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X3" s="13">
         <v>100000000</v>
@@ -2147,7 +2202,7 @@
         <v>359</v>
       </c>
       <c r="F4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G4" t="s">
         <v>360</v>
@@ -2156,34 +2211,34 @@
         <v>361</v>
       </c>
       <c r="J4" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K4">
         <v>400000</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>363</v>
+        <v>464</v>
       </c>
       <c r="P4" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>380</v>
+      </c>
+      <c r="R4" t="s">
         <v>381</v>
       </c>
-      <c r="Q4" t="s">
-        <v>381</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" t="s">
         <v>383</v>
-      </c>
-      <c r="T4" t="s">
-        <v>384</v>
       </c>
       <c r="U4" t="s">
         <v>186</v>
@@ -2192,7 +2247,7 @@
         <v>187</v>
       </c>
       <c r="W4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X4" s="13">
         <v>100000000</v>
@@ -2236,10 +2291,10 @@
         <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="F5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
         <v>360</v>
@@ -2248,34 +2303,34 @@
         <v>361</v>
       </c>
       <c r="J5" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K5">
         <v>400000</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>363</v>
+        <v>465</v>
       </c>
       <c r="P5" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>380</v>
+      </c>
+      <c r="R5" t="s">
         <v>381</v>
       </c>
-      <c r="Q5" t="s">
-        <v>381</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" t="s">
         <v>383</v>
-      </c>
-      <c r="T5" t="s">
-        <v>384</v>
       </c>
       <c r="U5" t="s">
         <v>186</v>
@@ -2284,7 +2339,7 @@
         <v>187</v>
       </c>
       <c r="W5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X5" s="13">
         <v>100000000</v>
@@ -2331,7 +2386,7 @@
         <v>359</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G6" t="s">
         <v>360</v>
@@ -2340,34 +2395,34 @@
         <v>361</v>
       </c>
       <c r="J6" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K6">
         <v>400000</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>363</v>
+        <v>467</v>
       </c>
       <c r="P6" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>380</v>
+      </c>
+      <c r="R6" t="s">
         <v>381</v>
       </c>
-      <c r="Q6" t="s">
-        <v>381</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" t="s">
         <v>383</v>
-      </c>
-      <c r="T6" t="s">
-        <v>384</v>
       </c>
       <c r="U6" t="s">
         <v>186</v>
@@ -2376,7 +2431,7 @@
         <v>187</v>
       </c>
       <c r="W6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X6" s="13">
         <v>100000000</v>
@@ -2423,7 +2478,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G7" t="s">
         <v>360</v>
@@ -2432,34 +2487,34 @@
         <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K7">
         <v>400000</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>363</v>
+        <v>468</v>
       </c>
       <c r="P7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>380</v>
+      </c>
+      <c r="R7" t="s">
         <v>381</v>
       </c>
-      <c r="Q7" t="s">
-        <v>381</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" t="s">
         <v>383</v>
-      </c>
-      <c r="T7" t="s">
-        <v>384</v>
       </c>
       <c r="U7" t="s">
         <v>186</v>
@@ -2468,7 +2523,7 @@
         <v>187</v>
       </c>
       <c r="W7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X7" s="13">
         <v>100000000</v>
@@ -2515,7 +2570,7 @@
         <v>359</v>
       </c>
       <c r="F8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G8" t="s">
         <v>360</v>
@@ -2524,34 +2579,34 @@
         <v>361</v>
       </c>
       <c r="J8" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K8">
         <v>400000</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="P8" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R8" t="s">
         <v>381</v>
       </c>
-      <c r="Q8" t="s">
-        <v>381</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" t="s">
         <v>383</v>
-      </c>
-      <c r="T8" t="s">
-        <v>384</v>
       </c>
       <c r="U8" t="s">
         <v>186</v>
@@ -2560,7 +2615,7 @@
         <v>187</v>
       </c>
       <c r="W8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X8" s="13">
         <v>100000000</v>
@@ -2607,7 +2662,7 @@
         <v>359</v>
       </c>
       <c r="F9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G9" t="s">
         <v>360</v>
@@ -2616,34 +2671,34 @@
         <v>361</v>
       </c>
       <c r="J9" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K9">
         <v>400000</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>363</v>
+        <v>470</v>
       </c>
       <c r="P9" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>380</v>
+      </c>
+      <c r="R9" t="s">
         <v>381</v>
       </c>
-      <c r="Q9" t="s">
-        <v>381</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" t="s">
         <v>383</v>
-      </c>
-      <c r="T9" t="s">
-        <v>384</v>
       </c>
       <c r="U9" t="s">
         <v>186</v>
@@ -2652,7 +2707,7 @@
         <v>186</v>
       </c>
       <c r="W9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X9" s="13">
         <v>100000000</v>
@@ -2699,7 +2754,7 @@
         <v>359</v>
       </c>
       <c r="F10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G10" t="s">
         <v>279</v>
@@ -2708,34 +2763,34 @@
         <v>361</v>
       </c>
       <c r="J10" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K10">
         <v>400000</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="P10" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>380</v>
+      </c>
+      <c r="R10" t="s">
         <v>381</v>
       </c>
-      <c r="Q10" t="s">
-        <v>381</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="S10" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" t="s">
         <v>383</v>
-      </c>
-      <c r="T10" t="s">
-        <v>384</v>
       </c>
       <c r="U10" t="s">
         <v>187</v>
@@ -2761,7 +2816,7 @@
         <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G11" t="s">
         <v>360</v>
@@ -2770,34 +2825,34 @@
         <v>361</v>
       </c>
       <c r="J11" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K11">
         <v>400000</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="P11" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>380</v>
+      </c>
+      <c r="R11" t="s">
         <v>381</v>
       </c>
-      <c r="Q11" t="s">
-        <v>381</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="T11" t="s">
         <v>383</v>
-      </c>
-      <c r="T11" t="s">
-        <v>384</v>
       </c>
       <c r="U11" t="s">
         <v>187</v>
@@ -2823,7 +2878,7 @@
         <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G12" t="s">
         <v>283</v>
@@ -2838,28 +2893,28 @@
         <v>400000</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="P12" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>380</v>
+      </c>
+      <c r="R12" t="s">
         <v>381</v>
       </c>
-      <c r="Q12" t="s">
-        <v>381</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="S12" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="T12" t="s">
         <v>383</v>
-      </c>
-      <c r="T12" t="s">
-        <v>384</v>
       </c>
       <c r="U12" t="s">
         <v>187</v>
@@ -2885,7 +2940,7 @@
         <v>287</v>
       </c>
       <c r="F13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G13" t="s">
         <v>360</v>
@@ -2900,28 +2955,28 @@
         <v>400000</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P13" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>380</v>
+      </c>
+      <c r="R13" t="s">
         <v>381</v>
       </c>
-      <c r="Q13" t="s">
-        <v>381</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="T13" t="s">
         <v>383</v>
-      </c>
-      <c r="T13" t="s">
-        <v>384</v>
       </c>
       <c r="U13" t="s">
         <v>187</v>
@@ -2947,7 +3002,7 @@
         <v>313</v>
       </c>
       <c r="F14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G14" t="s">
         <v>360</v>
@@ -2956,34 +3011,34 @@
         <v>361</v>
       </c>
       <c r="J14" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K14">
         <v>400000</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>106</v>
       </c>
       <c r="P14" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>380</v>
+      </c>
+      <c r="R14" t="s">
         <v>381</v>
       </c>
-      <c r="Q14" t="s">
-        <v>381</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="S14" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" t="s">
         <v>383</v>
-      </c>
-      <c r="T14" t="s">
-        <v>384</v>
       </c>
       <c r="U14" t="s">
         <v>186</v>
@@ -2992,7 +3047,7 @@
         <v>187</v>
       </c>
       <c r="W14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X14" s="13">
         <v>100000000</v>
@@ -3027,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>289</v>
@@ -3039,7 +3094,7 @@
         <v>309</v>
       </c>
       <c r="F15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G15" t="s">
         <v>360</v>
@@ -3054,28 +3109,28 @@
         <v>400000</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P15" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>380</v>
+      </c>
+      <c r="R15" t="s">
         <v>381</v>
       </c>
-      <c r="Q15" t="s">
-        <v>381</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="T15" t="s">
         <v>383</v>
-      </c>
-      <c r="T15" t="s">
-        <v>384</v>
       </c>
       <c r="U15" t="s">
         <v>210</v>
@@ -3089,117 +3144,97 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>318</v>
+        <v>454</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>455</v>
       </c>
       <c r="F16" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>457</v>
       </c>
       <c r="H16" t="s">
         <v>361</v>
       </c>
       <c r="J16" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="K16">
         <v>400000</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="P16" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>381</v>
-      </c>
-      <c r="R16" t="s">
-        <v>382</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="T16" t="s">
-        <v>384</v>
-      </c>
-      <c r="U16" t="s">
-        <v>210</v>
-      </c>
-      <c r="V16" t="s">
-        <v>187</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="E17" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F17" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G17" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="H17" t="s">
         <v>361</v>
       </c>
       <c r="J17" t="s">
-        <v>286</v>
+        <v>459</v>
       </c>
       <c r="K17">
         <v>400000</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P17" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>380</v>
+      </c>
+      <c r="R17" t="s">
         <v>381</v>
       </c>
-      <c r="Q17" t="s">
-        <v>381</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="T17" t="s">
         <v>383</v>
-      </c>
-      <c r="T17" t="s">
-        <v>384</v>
       </c>
       <c r="U17" t="s">
         <v>210</v>
@@ -3213,19 +3248,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F18" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="G18" t="s">
         <v>360</v>
@@ -3234,34 +3269,34 @@
         <v>361</v>
       </c>
       <c r="J18" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K18">
         <v>400000</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="P18" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>380</v>
+      </c>
+      <c r="R18" t="s">
         <v>381</v>
       </c>
-      <c r="Q18" t="s">
-        <v>381</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="S18" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" t="s">
         <v>383</v>
-      </c>
-      <c r="T18" t="s">
-        <v>384</v>
       </c>
       <c r="U18" t="s">
         <v>210</v>
@@ -3275,19 +3310,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E19" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G19" t="s">
         <v>360</v>
@@ -3296,34 +3331,34 @@
         <v>361</v>
       </c>
       <c r="J19" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="K19">
         <v>400000</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="P19" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>380</v>
+      </c>
+      <c r="R19" t="s">
         <v>381</v>
       </c>
-      <c r="Q19" t="s">
-        <v>381</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="S19" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="T19" t="s">
         <v>383</v>
-      </c>
-      <c r="T19" t="s">
-        <v>384</v>
       </c>
       <c r="U19" t="s">
         <v>210</v>
@@ -3337,55 +3372,55 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
         <v>359</v>
       </c>
       <c r="F20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="H20" t="s">
         <v>361</v>
       </c>
       <c r="J20" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K20">
         <v>400000</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P20" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>380</v>
+      </c>
+      <c r="R20" t="s">
         <v>381</v>
       </c>
-      <c r="Q20" t="s">
-        <v>381</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="S20" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="T20" t="s">
         <v>383</v>
-      </c>
-      <c r="T20" t="s">
-        <v>384</v>
       </c>
       <c r="U20" t="s">
         <v>210</v>
@@ -3399,91 +3434,61 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E21" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="F21" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H21" t="s">
         <v>361</v>
       </c>
       <c r="J21" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K21">
         <v>400000</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P21" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>380</v>
+      </c>
+      <c r="R21" t="s">
         <v>381</v>
       </c>
-      <c r="Q21" t="s">
-        <v>381</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="S21" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="T21" t="s">
         <v>383</v>
       </c>
-      <c r="T21" t="s">
-        <v>384</v>
-      </c>
       <c r="U21" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="V21" t="s">
-        <v>186</v>
-      </c>
-      <c r="W21" t="s">
-        <v>436</v>
-      </c>
-      <c r="X21" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="Y21">
-        <v>78</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.5">
@@ -3491,70 +3496,70 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="F22" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="G22" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="H22" t="s">
         <v>361</v>
       </c>
       <c r="J22" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K22">
         <v>400000</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P22" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>380</v>
+      </c>
+      <c r="R22" t="s">
         <v>381</v>
       </c>
-      <c r="Q22" t="s">
-        <v>381</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="S22" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="T22" t="s">
         <v>383</v>
-      </c>
-      <c r="T22" t="s">
-        <v>384</v>
       </c>
       <c r="U22" t="s">
         <v>186</v>
       </c>
       <c r="V22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="X22" s="13">
         <v>100000000</v>
       </c>
       <c r="Y22">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s">
         <v>214</v>
@@ -3583,19 +3588,19 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G23" t="s">
         <v>360</v>
@@ -3604,34 +3609,34 @@
         <v>361</v>
       </c>
       <c r="J23" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K23">
         <v>400000</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="P23" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>380</v>
+      </c>
+      <c r="R23" t="s">
         <v>381</v>
       </c>
-      <c r="Q23" t="s">
-        <v>381</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="S23" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="T23" t="s">
         <v>383</v>
-      </c>
-      <c r="T23" t="s">
-        <v>384</v>
       </c>
       <c r="U23" t="s">
         <v>186</v>
@@ -3640,13 +3645,13 @@
         <v>187</v>
       </c>
       <c r="W23" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="X23" s="13">
         <v>100000000</v>
       </c>
       <c r="Y23">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="s">
         <v>214</v>
@@ -3672,58 +3677,58 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>262</v>
+        <v>453</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="H24" t="s">
         <v>361</v>
       </c>
       <c r="J24" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K24">
         <v>400000</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P24" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>380</v>
+      </c>
+      <c r="R24" t="s">
         <v>381</v>
       </c>
-      <c r="Q24" t="s">
-        <v>381</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="S24" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="T24" t="s">
         <v>383</v>
-      </c>
-      <c r="T24" t="s">
-        <v>384</v>
       </c>
       <c r="U24" t="s">
         <v>186</v>
@@ -3732,13 +3737,13 @@
         <v>187</v>
       </c>
       <c r="W24" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="X24" s="13">
         <v>100000000</v>
       </c>
       <c r="Y24">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="Z24" t="s">
         <v>214</v>
@@ -3773,55 +3778,85 @@
         <v>321</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E25" t="s">
         <v>304</v>
       </c>
       <c r="F25" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="G25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H25" t="s">
         <v>361</v>
       </c>
       <c r="J25" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K25">
         <v>400000</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P25" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>380</v>
+      </c>
+      <c r="R25" t="s">
         <v>381</v>
       </c>
-      <c r="Q25" t="s">
-        <v>381</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="S25" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="T25" t="s">
         <v>383</v>
       </c>
-      <c r="T25" t="s">
-        <v>384</v>
-      </c>
       <c r="U25" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="V25" t="s">
         <v>187</v>
+      </c>
+      <c r="W25" t="s">
+        <v>437</v>
+      </c>
+      <c r="X25" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y25">
+        <v>274</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.5">
@@ -3835,85 +3870,55 @@
         <v>321</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E26" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F26" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G26" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="H26" t="s">
         <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K26">
         <v>400000</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P26" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>380</v>
+      </c>
+      <c r="R26" t="s">
         <v>381</v>
       </c>
-      <c r="Q26" t="s">
-        <v>381</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="S26" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="T26" t="s">
         <v>383</v>
       </c>
-      <c r="T26" t="s">
-        <v>384</v>
-      </c>
       <c r="U26" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="V26" t="s">
         <v>187</v>
-      </c>
-      <c r="W26" t="s">
-        <v>439</v>
-      </c>
-      <c r="X26" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="Y26">
-        <v>416</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.5">
@@ -3927,13 +3932,13 @@
         <v>321</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E27" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F27" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="G27" t="s">
         <v>360</v>
@@ -3942,49 +3947,49 @@
         <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K27">
         <v>400000</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P27" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>380</v>
+      </c>
+      <c r="R27" t="s">
         <v>381</v>
       </c>
-      <c r="Q27" t="s">
-        <v>381</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="S27" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="T27" t="s">
         <v>383</v>
-      </c>
-      <c r="T27" t="s">
-        <v>384</v>
       </c>
       <c r="U27" t="s">
         <v>186</v>
       </c>
       <c r="V27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="X27" s="13">
         <v>100000000</v>
       </c>
       <c r="Y27">
-        <v>733</v>
+        <v>416</v>
       </c>
       <c r="Z27" t="s">
         <v>214</v>
@@ -4010,58 +4015,58 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E28" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="F28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G28" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="H28" t="s">
         <v>361</v>
       </c>
       <c r="J28" t="s">
-        <v>286</v>
+        <v>459</v>
       </c>
       <c r="K28">
         <v>400000</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P28" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>380</v>
+      </c>
+      <c r="R28" t="s">
         <v>381</v>
       </c>
-      <c r="Q28" t="s">
-        <v>381</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="S28" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="T28" t="s">
         <v>383</v>
-      </c>
-      <c r="T28" t="s">
-        <v>384</v>
       </c>
       <c r="U28" t="s">
         <v>186</v>
@@ -4070,13 +4075,13 @@
         <v>186</v>
       </c>
       <c r="W28" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="X28" s="13">
         <v>100000000</v>
       </c>
       <c r="Y28">
-        <v>33</v>
+        <v>733</v>
       </c>
       <c r="Z28" t="s">
         <v>214</v>
@@ -4111,16 +4116,16 @@
         <v>358</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="F29" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="G29" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="H29" t="s">
         <v>361</v>
@@ -4132,54 +4137,84 @@
         <v>400000</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="O29" t="s">
-        <v>324</v>
+        <v>460</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="P29" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>380</v>
+      </c>
+      <c r="R29" t="s">
         <v>381</v>
       </c>
-      <c r="Q29" t="s">
-        <v>381</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="S29" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="T29" t="s">
         <v>383</v>
       </c>
-      <c r="T29" t="s">
-        <v>384</v>
-      </c>
       <c r="U29" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="V29" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="W29" t="s">
+        <v>427</v>
+      </c>
+      <c r="X29" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y29">
+        <v>33</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>358</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E30" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G30" t="s">
         <v>360</v>
@@ -4194,28 +4229,28 @@
         <v>400000</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>375</v>
+        <v>460</v>
+      </c>
+      <c r="O30" t="s">
+        <v>324</v>
       </c>
       <c r="P30" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>380</v>
+      </c>
+      <c r="R30" t="s">
         <v>381</v>
       </c>
-      <c r="Q30" t="s">
-        <v>381</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="S30" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S30" s="6" t="s">
+      <c r="T30" t="s">
         <v>383</v>
-      </c>
-      <c r="T30" t="s">
-        <v>384</v>
       </c>
       <c r="U30" t="s">
         <v>210</v>
@@ -4235,13 +4270,13 @@
         <v>358</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F31" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="G31" t="s">
         <v>360</v>
@@ -4250,34 +4285,34 @@
         <v>361</v>
       </c>
       <c r="J31" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="K31">
         <v>400000</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P31" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>380</v>
+      </c>
+      <c r="R31" t="s">
         <v>381</v>
       </c>
-      <c r="Q31" t="s">
-        <v>381</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="S31" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="T31" t="s">
         <v>383</v>
-      </c>
-      <c r="T31" t="s">
-        <v>384</v>
       </c>
       <c r="U31" t="s">
         <v>210</v>
@@ -4297,85 +4332,55 @@
         <v>358</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E32" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G32" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="H32" t="s">
         <v>361</v>
       </c>
       <c r="J32" t="s">
-        <v>294</v>
+        <v>459</v>
       </c>
       <c r="K32">
         <v>400000</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="O32" t="s">
-        <v>331</v>
+        <v>460</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="P32" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>380</v>
+      </c>
+      <c r="R32" t="s">
         <v>381</v>
       </c>
-      <c r="Q32" t="s">
-        <v>381</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="S32" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="T32" t="s">
         <v>383</v>
       </c>
-      <c r="T32" t="s">
-        <v>384</v>
-      </c>
       <c r="U32" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="V32" t="s">
         <v>187</v>
-      </c>
-      <c r="W32" t="s">
-        <v>441</v>
-      </c>
-      <c r="X32" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="Y32">
-        <v>300</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.5">
@@ -4389,55 +4394,85 @@
         <v>358</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E33" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G33" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H33" t="s">
         <v>361</v>
       </c>
       <c r="J33" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="K33">
         <v>400000</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P33" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>380</v>
+      </c>
+      <c r="R33" t="s">
         <v>381</v>
       </c>
-      <c r="Q33" t="s">
-        <v>381</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="S33" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="T33" t="s">
         <v>383</v>
       </c>
-      <c r="T33" t="s">
-        <v>384</v>
-      </c>
       <c r="U33" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="V33" t="s">
         <v>187</v>
+      </c>
+      <c r="W33" t="s">
+        <v>440</v>
+      </c>
+      <c r="X33" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y33">
+        <v>300</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.5">
@@ -4451,49 +4486,49 @@
         <v>358</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E34" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F34" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G34" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="H34" t="s">
         <v>361</v>
       </c>
       <c r="J34" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K34">
         <v>400000</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>377</v>
+        <v>460</v>
+      </c>
+      <c r="O34" t="s">
+        <v>335</v>
       </c>
       <c r="P34" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>380</v>
+      </c>
+      <c r="R34" t="s">
         <v>381</v>
       </c>
-      <c r="Q34" t="s">
-        <v>381</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="S34" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="T34" t="s">
         <v>383</v>
-      </c>
-      <c r="T34" t="s">
-        <v>384</v>
       </c>
       <c r="U34" t="s">
         <v>210</v>
@@ -4513,13 +4548,13 @@
         <v>358</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F35" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G35" t="s">
         <v>360</v>
@@ -4528,34 +4563,34 @@
         <v>361</v>
       </c>
       <c r="J35" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K35">
         <v>400000</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P35" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>380</v>
+      </c>
+      <c r="R35" t="s">
         <v>381</v>
       </c>
-      <c r="Q35" t="s">
-        <v>381</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="S35" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="T35" t="s">
         <v>383</v>
-      </c>
-      <c r="T35" t="s">
-        <v>384</v>
       </c>
       <c r="U35" t="s">
         <v>210</v>
@@ -4566,22 +4601,22 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>358</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F36" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G36" t="s">
         <v>360</v>
@@ -4590,34 +4625,34 @@
         <v>361</v>
       </c>
       <c r="J36" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K36">
         <v>400000</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P36" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>380</v>
+      </c>
+      <c r="R36" t="s">
         <v>381</v>
       </c>
-      <c r="Q36" t="s">
-        <v>381</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="S36" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="T36" t="s">
         <v>383</v>
-      </c>
-      <c r="T36" t="s">
-        <v>384</v>
       </c>
       <c r="U36" t="s">
         <v>210</v>
@@ -4637,49 +4672,49 @@
         <v>358</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E37" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G37" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H37" t="s">
         <v>361</v>
       </c>
       <c r="J37" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K37">
         <v>400000</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P37" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>380</v>
+      </c>
+      <c r="R37" t="s">
         <v>381</v>
       </c>
-      <c r="Q37" t="s">
-        <v>381</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="S37" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S37" s="6" t="s">
+      <c r="T37" t="s">
         <v>383</v>
-      </c>
-      <c r="T37" t="s">
-        <v>384</v>
       </c>
       <c r="U37" t="s">
         <v>210</v>
@@ -4699,49 +4734,49 @@
         <v>358</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F38" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G38" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="H38" t="s">
         <v>361</v>
       </c>
       <c r="J38" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K38">
         <v>400000</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O38" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="P38" t="s">
         <v>380</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
+        <v>380</v>
+      </c>
+      <c r="R38" t="s">
         <v>381</v>
       </c>
-      <c r="Q38" t="s">
-        <v>381</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="S38" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="T38" t="s">
         <v>383</v>
-      </c>
-      <c r="T38" t="s">
-        <v>384</v>
       </c>
       <c r="U38" t="s">
         <v>210</v>
@@ -4761,85 +4796,55 @@
         <v>358</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G39" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H39" t="s">
         <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K39">
         <v>400000</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="O39" t="s">
-        <v>351</v>
+        <v>460</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="P39" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>380</v>
+      </c>
+      <c r="R39" t="s">
         <v>381</v>
       </c>
-      <c r="Q39" t="s">
-        <v>381</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="S39" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="T39" t="s">
         <v>383</v>
       </c>
-      <c r="T39" t="s">
-        <v>384</v>
-      </c>
       <c r="U39" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="V39" t="s">
         <v>187</v>
-      </c>
-      <c r="W39" t="s">
-        <v>442</v>
-      </c>
-      <c r="X39" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="Y39">
-        <v>77</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.5">
@@ -4853,55 +4858,85 @@
         <v>358</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E40" t="s">
         <v>352</v>
       </c>
       <c r="F40" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="G40" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H40" t="s">
         <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K40">
         <v>400000</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="O40" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P40" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>380</v>
+      </c>
+      <c r="R40" t="s">
         <v>381</v>
       </c>
-      <c r="Q40" t="s">
-        <v>381</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="S40" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="T40" t="s">
         <v>383</v>
       </c>
-      <c r="T40" t="s">
-        <v>384</v>
-      </c>
       <c r="U40" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="V40" t="s">
         <v>187</v>
+      </c>
+      <c r="W40" t="s">
+        <v>441</v>
+      </c>
+      <c r="X40" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="Y40">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.5">
@@ -4915,127 +4950,189 @@
         <v>358</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
       <c r="E41" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F41" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G41" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H41" t="s">
         <v>361</v>
       </c>
       <c r="J41" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="K41">
         <v>400000</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>363</v>
+        <v>460</v>
+      </c>
+      <c r="O41" t="s">
+        <v>355</v>
       </c>
       <c r="P41" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>380</v>
+      </c>
+      <c r="R41" t="s">
         <v>381</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="S41" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="T41" t="s">
+        <v>383</v>
+      </c>
+      <c r="U41" t="s">
+        <v>210</v>
+      </c>
+      <c r="V41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>357</v>
+      </c>
+      <c r="F42" t="s">
+        <v>422</v>
+      </c>
+      <c r="G42" t="s">
+        <v>360</v>
+      </c>
+      <c r="H42" t="s">
+        <v>361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>459</v>
+      </c>
+      <c r="K42">
+        <v>400000</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="P42" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>380</v>
+      </c>
+      <c r="R42" t="s">
         <v>381</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S42" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="T42" t="s">
         <v>383</v>
       </c>
-      <c r="T41" t="s">
-        <v>384</v>
-      </c>
-      <c r="U41" t="s">
+      <c r="U42" t="s">
         <v>186</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V42" t="s">
         <v>186</v>
       </c>
-      <c r="W41" t="s">
-        <v>443</v>
-      </c>
-      <c r="X41" s="13">
+      <c r="W42" t="s">
+        <v>442</v>
+      </c>
+      <c r="X42" s="13">
         <v>100000000</v>
       </c>
-      <c r="Y41">
+      <c r="Y42">
         <v>41</v>
       </c>
-      <c r="Z41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF41" t="s">
+      <c r="Z42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF42" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O15" r:id="rId1" xr:uid="{605E7DBF-776D-4A07-BB17-3C3D84117B58}"/>
-    <hyperlink ref="O17" r:id="rId2" xr:uid="{DC2EDD43-D106-45A6-ABCD-D65A1484D212}"/>
-    <hyperlink ref="O18" r:id="rId3" display="https://blockfi.com/" xr:uid="{DCB2717E-808D-4BF3-AF1E-903B9B3A9CC9}"/>
-    <hyperlink ref="O21" r:id="rId4" xr:uid="{EC054A11-8074-41F4-B5E2-1E64B9A130E4}"/>
-    <hyperlink ref="O24" r:id="rId5" xr:uid="{570624CC-014F-43A0-9F79-F9C5A62AF1A2}"/>
-    <hyperlink ref="O25" r:id="rId6" xr:uid="{3FF25C79-DF3A-4F28-A09A-ACA10CE415C2}"/>
-    <hyperlink ref="O26" r:id="rId7" xr:uid="{B02F4AF3-83BF-4490-9E7F-1A8D91C94867}"/>
+    <hyperlink ref="O18" r:id="rId2" xr:uid="{DC2EDD43-D106-45A6-ABCD-D65A1484D212}"/>
+    <hyperlink ref="O19" r:id="rId3" display="https://blockfi.com/" xr:uid="{DCB2717E-808D-4BF3-AF1E-903B9B3A9CC9}"/>
+    <hyperlink ref="O22" r:id="rId4" xr:uid="{EC054A11-8074-41F4-B5E2-1E64B9A130E4}"/>
+    <hyperlink ref="O25" r:id="rId5" xr:uid="{570624CC-014F-43A0-9F79-F9C5A62AF1A2}"/>
+    <hyperlink ref="O26" r:id="rId6" xr:uid="{3FF25C79-DF3A-4F28-A09A-ACA10CE415C2}"/>
+    <hyperlink ref="O27" r:id="rId7" xr:uid="{B02F4AF3-83BF-4490-9E7F-1A8D91C94867}"/>
     <hyperlink ref="O14" r:id="rId8" xr:uid="{DCAA4EB3-0A8D-4EA6-901B-F1F1F6A27BD4}"/>
-    <hyperlink ref="O23" r:id="rId9" xr:uid="{5B6AF57E-D299-4DAA-B691-D30CD551B50E}"/>
-    <hyperlink ref="O27" r:id="rId10" xr:uid="{60F0FAFE-56EE-476D-8BBD-4FF5EDD06FED}"/>
-    <hyperlink ref="O16" r:id="rId11" xr:uid="{41A40A7F-AD71-468E-B882-44623E5E4643}"/>
-    <hyperlink ref="O28" r:id="rId12" xr:uid="{38341501-CC99-4695-B19D-15981E3436F2}"/>
-    <hyperlink ref="O30" r:id="rId13" xr:uid="{25752BD6-C088-41E4-87E0-220FD5DBD552}"/>
-    <hyperlink ref="O31" r:id="rId14" xr:uid="{3D166035-B1CD-4F78-BA71-143E1BB0644D}"/>
-    <hyperlink ref="O36" r:id="rId15" xr:uid="{919767DE-B0B0-4166-BF26-6C86420CB5DC}"/>
-    <hyperlink ref="O34" r:id="rId16" xr:uid="{CAC66B5A-8058-4A08-9C68-9F928FAE51F8}"/>
-    <hyperlink ref="O35" r:id="rId17" xr:uid="{440220A8-59EB-42DA-AA7C-7AEDC7F64A44}"/>
-    <hyperlink ref="O38" r:id="rId18" xr:uid="{CE0D80EC-C5CE-403E-94E6-3C2110A07028}"/>
-    <hyperlink ref="M2" r:id="rId19" xr:uid="{DF2CD12A-6FAB-486B-8972-F91F563040FD}"/>
-    <hyperlink ref="M3:M41" r:id="rId20" display="https://nutshell.news" xr:uid="{DC17EF6B-AF0E-40EB-8E1C-4E73DEEB3559}"/>
-    <hyperlink ref="N2:N41" r:id="rId21" display="https://nutshell.news" xr:uid="{19CA1A2A-82C0-4AD9-AF84-19D1CA1686E1}"/>
-    <hyperlink ref="O41" r:id="rId22" xr:uid="{04AAF9C5-0C3E-4E1F-9072-7807989238DB}"/>
-    <hyperlink ref="O37" r:id="rId23" xr:uid="{8228132F-9814-4437-8BC6-1A54BBE10CFB}"/>
-    <hyperlink ref="O22" r:id="rId24" xr:uid="{EA3540E8-6451-4D4B-A15D-4D36FD0D1E20}"/>
-    <hyperlink ref="O20" r:id="rId25" xr:uid="{9FB30509-67B3-4AA0-9DDB-D47AA8FF52A1}"/>
-    <hyperlink ref="O19" r:id="rId26" xr:uid="{737ECE90-08EC-4588-8B5B-7D1FF16F919D}"/>
-    <hyperlink ref="O13" r:id="rId27" xr:uid="{B5051242-03F1-4BF5-9ADC-AE8403A14516}"/>
-    <hyperlink ref="O11" r:id="rId28" xr:uid="{4A104ADD-5FFD-44FD-A73B-DDE81A6D95B6}"/>
-    <hyperlink ref="O10" r:id="rId29" xr:uid="{C8148D5C-9DED-4AD7-AEC0-DB1CECE0FE7C}"/>
-    <hyperlink ref="O9" r:id="rId30" xr:uid="{48FD1C5A-50E8-4A43-A962-7192E50EBCFA}"/>
-    <hyperlink ref="O8" r:id="rId31" xr:uid="{BF3A5384-6AA5-4528-861B-17491FA50CEE}"/>
-    <hyperlink ref="O7" r:id="rId32" xr:uid="{AE100D7D-711C-415D-89D9-97A0095F5454}"/>
-    <hyperlink ref="O6" r:id="rId33" xr:uid="{7B31B6E3-DFB3-499F-9919-46BCCE5FBC76}"/>
-    <hyperlink ref="O5" r:id="rId34" xr:uid="{DC53058D-E02B-4F12-8863-F914650B4094}"/>
-    <hyperlink ref="O4" r:id="rId35" xr:uid="{717CFBC0-E092-489B-9F73-2BD18684AA42}"/>
-    <hyperlink ref="O3" r:id="rId36" xr:uid="{F5788F81-0145-4F39-9CE7-6F8C7DF35279}"/>
-    <hyperlink ref="O2" r:id="rId37" xr:uid="{2BE6185E-2787-4177-A62A-90EF8613EED8}"/>
-    <hyperlink ref="O12" r:id="rId38" xr:uid="{856D5ED7-2454-4019-94F7-62A0E0443F1E}"/>
+    <hyperlink ref="O24" r:id="rId9" xr:uid="{5B6AF57E-D299-4DAA-B691-D30CD551B50E}"/>
+    <hyperlink ref="O28" r:id="rId10" xr:uid="{60F0FAFE-56EE-476D-8BBD-4FF5EDD06FED}"/>
+    <hyperlink ref="O17" r:id="rId11" xr:uid="{41A40A7F-AD71-468E-B882-44623E5E4643}"/>
+    <hyperlink ref="O29" r:id="rId12" xr:uid="{38341501-CC99-4695-B19D-15981E3436F2}"/>
+    <hyperlink ref="O31" r:id="rId13" xr:uid="{25752BD6-C088-41E4-87E0-220FD5DBD552}"/>
+    <hyperlink ref="O32" r:id="rId14" xr:uid="{3D166035-B1CD-4F78-BA71-143E1BB0644D}"/>
+    <hyperlink ref="O37" r:id="rId15" xr:uid="{919767DE-B0B0-4166-BF26-6C86420CB5DC}"/>
+    <hyperlink ref="O35" r:id="rId16" xr:uid="{CAC66B5A-8058-4A08-9C68-9F928FAE51F8}"/>
+    <hyperlink ref="O36" r:id="rId17" xr:uid="{440220A8-59EB-42DA-AA7C-7AEDC7F64A44}"/>
+    <hyperlink ref="O39" r:id="rId18" xr:uid="{CE0D80EC-C5CE-403E-94E6-3C2110A07028}"/>
+    <hyperlink ref="M3:M42" r:id="rId19" display="https://nutshell.news" xr:uid="{DC17EF6B-AF0E-40EB-8E1C-4E73DEEB3559}"/>
+    <hyperlink ref="N2:N42" r:id="rId20" display="https://nutshell.news" xr:uid="{19CA1A2A-82C0-4AD9-AF84-19D1CA1686E1}"/>
+    <hyperlink ref="O42" r:id="rId21" xr:uid="{04AAF9C5-0C3E-4E1F-9072-7807989238DB}"/>
+    <hyperlink ref="O38" r:id="rId22" xr:uid="{8228132F-9814-4437-8BC6-1A54BBE10CFB}"/>
+    <hyperlink ref="O23" r:id="rId23" xr:uid="{EA3540E8-6451-4D4B-A15D-4D36FD0D1E20}"/>
+    <hyperlink ref="O21" r:id="rId24" xr:uid="{9FB30509-67B3-4AA0-9DDB-D47AA8FF52A1}"/>
+    <hyperlink ref="O20" r:id="rId25" xr:uid="{737ECE90-08EC-4588-8B5B-7D1FF16F919D}"/>
+    <hyperlink ref="O13" r:id="rId26" xr:uid="{B5051242-03F1-4BF5-9ADC-AE8403A14516}"/>
+    <hyperlink ref="O12" r:id="rId27" xr:uid="{856D5ED7-2454-4019-94F7-62A0E0443F1E}"/>
+    <hyperlink ref="O16" r:id="rId28" xr:uid="{AF32BC96-3E60-47D9-98A0-18A944E58311}"/>
+    <hyperlink ref="O2" r:id="rId29" xr:uid="{D2F89F2F-3D42-4282-BA4A-ED74AEB764DE}"/>
+    <hyperlink ref="O3" r:id="rId30" xr:uid="{345DD1D0-5EAE-4BE2-B63B-E45D84A1B9A5}"/>
+    <hyperlink ref="O4" r:id="rId31" xr:uid="{A51C4BBD-0737-42B9-99DA-3CE797151370}"/>
+    <hyperlink ref="O5" r:id="rId32" xr:uid="{D6F76FBB-A4CD-4B93-8784-05B47C8D5866}"/>
+    <hyperlink ref="O6" r:id="rId33" xr:uid="{2A604D9E-E512-4A86-9C61-AEAF15A9135B}"/>
+    <hyperlink ref="O7" r:id="rId34" xr:uid="{7C3E72AB-FE7A-4E63-AB7B-72A23A393E40}"/>
+    <hyperlink ref="O8" r:id="rId35" xr:uid="{2C330E44-232E-4244-95DF-94E59512C004}"/>
+    <hyperlink ref="O9" r:id="rId36" xr:uid="{8259A974-CFDF-4A0E-9A1C-40AFF68AEAC5}"/>
+    <hyperlink ref="O10" r:id="rId37" xr:uid="{8770DDF9-3F6A-41F6-A7FF-184647B17F05}"/>
+    <hyperlink ref="O11" r:id="rId38" xr:uid="{B708C81D-C541-4E6E-B955-9DFD13AE1687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
@@ -5075,37 +5172,37 @@
         <v>274</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>200</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5116,7 +5213,7 @@
         <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D2" s="13">
         <v>100000000</v>
@@ -5157,7 +5254,7 @@
         <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D3" s="13">
         <v>100000000</v>
@@ -5198,7 +5295,7 @@
         <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" s="13">
         <v>100000000</v>
@@ -5242,7 +5339,7 @@
         <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" s="13">
         <v>100000000</v>
@@ -5286,7 +5383,7 @@
         <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6" s="13">
         <v>100000000</v>
@@ -5330,7 +5427,7 @@
         <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D7" s="13">
         <v>100000000</v>
@@ -5374,7 +5471,7 @@
         <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D8" s="13">
         <v>100000000</v>
@@ -5418,7 +5515,7 @@
         <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9" s="13">
         <v>100000000</v>
@@ -5506,7 +5603,7 @@
         <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D14" s="13">
         <v>100000000</v>
@@ -5583,7 +5680,7 @@
         <v>210</v>
       </c>
       <c r="P18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.5">
@@ -5616,7 +5713,7 @@
         <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D21" s="13">
         <v>100000000</v>
@@ -5660,7 +5757,7 @@
         <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D22" s="13">
         <v>100000000</v>
@@ -5704,7 +5801,7 @@
         <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D23" s="13">
         <v>100000000</v>
@@ -5748,7 +5845,7 @@
         <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D24" s="13">
         <v>100000000</v>
@@ -5803,7 +5900,7 @@
         <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D26" s="13">
         <v>100000000</v>
@@ -5847,7 +5944,7 @@
         <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D27" s="13">
         <v>100000000</v>
@@ -5891,7 +5988,7 @@
         <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D28" s="13">
         <v>100000000</v>
@@ -5959,7 +6056,7 @@
         <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D32" s="13">
         <v>100000000</v>
@@ -6048,7 +6145,7 @@
         <v>186</v>
       </c>
       <c r="C39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D39" s="13">
         <v>100000000</v>
@@ -6097,7 +6194,7 @@
         <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D41" s="13">
         <v>100000000</v>

--- a/TheForest.xlsx
+++ b/TheForest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e9f40dc8bb03d0/Desktop/Coding/next.forest-dapps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="14_{EDD8412B-BE75-4F5F-8CAD-DD0AEC15536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC5A00A-6257-4A4C-9AD8-C65D6A8AC0F7}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="14_{EDD8412B-BE75-4F5F-8CAD-DD0AEC15536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D999A36-CBB5-4341-94D8-92A8281001DF}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{1A95C62F-7AAB-40F5-917B-077457EEA376}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="477">
   <si>
     <t>Project</t>
   </si>
@@ -1128,9 +1128,6 @@
     <t>Founder 1, Founder 2</t>
   </si>
   <si>
-    <t>https://nutshell.news</t>
-  </si>
-  <si>
     <t>https://www.ibm.com/cloud/blockchain-platform/pricing</t>
   </si>
   <si>
@@ -1459,6 +1456,21 @@
   </si>
   <si>
     <t>https://bcdb.modex.tech/</t>
+  </si>
+  <si>
+    <t>https://www.kaleido.io/</t>
+  </si>
+  <si>
+    <t>https://coinbase.com/</t>
+  </si>
+  <si>
+    <t>https://metamask.io/</t>
+  </si>
+  <si>
+    <t>https://www.stellar.org/</t>
+  </si>
+  <si>
+    <t>https://www.vezt.co/</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACA47AA-AEB6-489C-9F19-E34652EE68E2}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1935,13 +1947,13 @@
         <v>217</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>206</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>218</v>
@@ -1971,34 +1983,34 @@
         <v>275</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>188</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>200</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.5">
@@ -2018,7 +2030,7 @@
         <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G2" t="s">
         <v>360</v>
@@ -2027,34 +2039,34 @@
         <v>361</v>
       </c>
       <c r="J2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K2">
         <v>400000</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>379</v>
+      </c>
+      <c r="R2" t="s">
         <v>380</v>
       </c>
-      <c r="Q2" t="s">
-        <v>380</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" t="s">
         <v>382</v>
-      </c>
-      <c r="T2" t="s">
-        <v>383</v>
       </c>
       <c r="U2" t="s">
         <v>186</v>
@@ -2063,7 +2075,7 @@
         <v>187</v>
       </c>
       <c r="W2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X2" s="13">
         <v>100000000</v>
@@ -2110,7 +2122,7 @@
         <v>359</v>
       </c>
       <c r="F3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G3" t="s">
         <v>360</v>
@@ -2119,34 +2131,34 @@
         <v>361</v>
       </c>
       <c r="J3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K3">
         <v>400000</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>379</v>
+      </c>
+      <c r="R3" t="s">
         <v>380</v>
       </c>
-      <c r="Q3" t="s">
-        <v>380</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" t="s">
         <v>382</v>
-      </c>
-      <c r="T3" t="s">
-        <v>383</v>
       </c>
       <c r="U3" t="s">
         <v>186</v>
@@ -2155,7 +2167,7 @@
         <v>187</v>
       </c>
       <c r="W3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X3" s="13">
         <v>100000000</v>
@@ -2202,7 +2214,7 @@
         <v>359</v>
       </c>
       <c r="F4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G4" t="s">
         <v>360</v>
@@ -2211,34 +2223,34 @@
         <v>361</v>
       </c>
       <c r="J4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K4">
         <v>400000</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P4" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>379</v>
+      </c>
+      <c r="R4" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" t="s">
-        <v>380</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" t="s">
         <v>382</v>
-      </c>
-      <c r="T4" t="s">
-        <v>383</v>
       </c>
       <c r="U4" t="s">
         <v>186</v>
@@ -2247,7 +2259,7 @@
         <v>187</v>
       </c>
       <c r="W4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X4" s="13">
         <v>100000000</v>
@@ -2291,10 +2303,10 @@
         <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G5" t="s">
         <v>360</v>
@@ -2303,34 +2315,34 @@
         <v>361</v>
       </c>
       <c r="J5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K5">
         <v>400000</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P5" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>379</v>
+      </c>
+      <c r="R5" t="s">
         <v>380</v>
       </c>
-      <c r="Q5" t="s">
-        <v>380</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" t="s">
         <v>382</v>
-      </c>
-      <c r="T5" t="s">
-        <v>383</v>
       </c>
       <c r="U5" t="s">
         <v>186</v>
@@ -2339,7 +2351,7 @@
         <v>187</v>
       </c>
       <c r="W5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X5" s="13">
         <v>100000000</v>
@@ -2386,7 +2398,7 @@
         <v>359</v>
       </c>
       <c r="F6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G6" t="s">
         <v>360</v>
@@ -2395,34 +2407,34 @@
         <v>361</v>
       </c>
       <c r="J6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K6">
         <v>400000</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P6" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>379</v>
+      </c>
+      <c r="R6" t="s">
         <v>380</v>
       </c>
-      <c r="Q6" t="s">
-        <v>380</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" t="s">
         <v>382</v>
-      </c>
-      <c r="T6" t="s">
-        <v>383</v>
       </c>
       <c r="U6" t="s">
         <v>186</v>
@@ -2431,7 +2443,7 @@
         <v>187</v>
       </c>
       <c r="W6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X6" s="13">
         <v>100000000</v>
@@ -2478,7 +2490,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G7" t="s">
         <v>360</v>
@@ -2487,34 +2499,34 @@
         <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K7">
         <v>400000</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>379</v>
+      </c>
+      <c r="R7" t="s">
         <v>380</v>
       </c>
-      <c r="Q7" t="s">
-        <v>380</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" t="s">
         <v>382</v>
-      </c>
-      <c r="T7" t="s">
-        <v>383</v>
       </c>
       <c r="U7" t="s">
         <v>186</v>
@@ -2523,7 +2535,7 @@
         <v>187</v>
       </c>
       <c r="W7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X7" s="13">
         <v>100000000</v>
@@ -2570,7 +2582,7 @@
         <v>359</v>
       </c>
       <c r="F8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G8" t="s">
         <v>360</v>
@@ -2579,34 +2591,34 @@
         <v>361</v>
       </c>
       <c r="J8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K8">
         <v>400000</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P8" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>379</v>
+      </c>
+      <c r="R8" t="s">
         <v>380</v>
       </c>
-      <c r="Q8" t="s">
-        <v>380</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" t="s">
         <v>382</v>
-      </c>
-      <c r="T8" t="s">
-        <v>383</v>
       </c>
       <c r="U8" t="s">
         <v>186</v>
@@ -2615,7 +2627,7 @@
         <v>187</v>
       </c>
       <c r="W8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X8" s="13">
         <v>100000000</v>
@@ -2662,7 +2674,7 @@
         <v>359</v>
       </c>
       <c r="F9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G9" t="s">
         <v>360</v>
@@ -2671,34 +2683,34 @@
         <v>361</v>
       </c>
       <c r="J9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K9">
         <v>400000</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P9" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>379</v>
+      </c>
+      <c r="R9" t="s">
         <v>380</v>
       </c>
-      <c r="Q9" t="s">
-        <v>380</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" t="s">
         <v>382</v>
-      </c>
-      <c r="T9" t="s">
-        <v>383</v>
       </c>
       <c r="U9" t="s">
         <v>186</v>
@@ -2707,7 +2719,7 @@
         <v>186</v>
       </c>
       <c r="W9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X9" s="13">
         <v>100000000</v>
@@ -2754,7 +2766,7 @@
         <v>359</v>
       </c>
       <c r="F10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G10" t="s">
         <v>279</v>
@@ -2763,34 +2775,34 @@
         <v>361</v>
       </c>
       <c r="J10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K10">
         <v>400000</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P10" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>379</v>
+      </c>
+      <c r="R10" t="s">
         <v>380</v>
       </c>
-      <c r="Q10" t="s">
-        <v>380</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="S10" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" t="s">
         <v>382</v>
-      </c>
-      <c r="T10" t="s">
-        <v>383</v>
       </c>
       <c r="U10" t="s">
         <v>187</v>
@@ -2816,7 +2828,7 @@
         <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G11" t="s">
         <v>360</v>
@@ -2825,34 +2837,34 @@
         <v>361</v>
       </c>
       <c r="J11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K11">
         <v>400000</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P11" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>379</v>
+      </c>
+      <c r="R11" t="s">
         <v>380</v>
       </c>
-      <c r="Q11" t="s">
-        <v>380</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="T11" t="s">
         <v>382</v>
-      </c>
-      <c r="T11" t="s">
-        <v>383</v>
       </c>
       <c r="U11" t="s">
         <v>187</v>
@@ -2878,7 +2890,7 @@
         <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G12" t="s">
         <v>283</v>
@@ -2893,28 +2905,28 @@
         <v>400000</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P12" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>379</v>
+      </c>
+      <c r="R12" t="s">
         <v>380</v>
       </c>
-      <c r="Q12" t="s">
-        <v>380</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="S12" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="T12" t="s">
         <v>382</v>
-      </c>
-      <c r="T12" t="s">
-        <v>383</v>
       </c>
       <c r="U12" t="s">
         <v>187</v>
@@ -2940,7 +2952,7 @@
         <v>287</v>
       </c>
       <c r="F13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G13" t="s">
         <v>360</v>
@@ -2955,28 +2967,28 @@
         <v>400000</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>362</v>
+        <v>472</v>
       </c>
       <c r="P13" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>379</v>
+      </c>
+      <c r="R13" t="s">
         <v>380</v>
       </c>
-      <c r="Q13" t="s">
-        <v>380</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="T13" t="s">
         <v>382</v>
-      </c>
-      <c r="T13" t="s">
-        <v>383</v>
       </c>
       <c r="U13" t="s">
         <v>187</v>
@@ -3002,7 +3014,7 @@
         <v>313</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G14" t="s">
         <v>360</v>
@@ -3011,34 +3023,34 @@
         <v>361</v>
       </c>
       <c r="J14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K14">
         <v>400000</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>106</v>
       </c>
       <c r="P14" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>379</v>
+      </c>
+      <c r="R14" t="s">
         <v>380</v>
       </c>
-      <c r="Q14" t="s">
-        <v>380</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="S14" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" t="s">
         <v>382</v>
-      </c>
-      <c r="T14" t="s">
-        <v>383</v>
       </c>
       <c r="U14" t="s">
         <v>186</v>
@@ -3047,7 +3059,7 @@
         <v>187</v>
       </c>
       <c r="W14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X14" s="13">
         <v>100000000</v>
@@ -3082,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>289</v>
@@ -3094,7 +3106,7 @@
         <v>309</v>
       </c>
       <c r="F15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G15" t="s">
         <v>360</v>
@@ -3109,28 +3121,28 @@
         <v>400000</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P15" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>379</v>
+      </c>
+      <c r="R15" t="s">
         <v>380</v>
       </c>
-      <c r="Q15" t="s">
-        <v>380</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="T15" t="s">
         <v>382</v>
-      </c>
-      <c r="T15" t="s">
-        <v>383</v>
       </c>
       <c r="U15" t="s">
         <v>210</v>
@@ -3144,49 +3156,69 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E16" t="s">
         <v>454</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>455</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>456</v>
-      </c>
-      <c r="G16" t="s">
-        <v>457</v>
       </c>
       <c r="H16" t="s">
         <v>361</v>
       </c>
       <c r="J16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K16">
         <v>400000</v>
       </c>
       <c r="M16" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="S16" s="6"/>
+      <c r="P16" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>379</v>
+      </c>
+      <c r="R16" t="s">
+        <v>380</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="T16" t="s">
+        <v>382</v>
+      </c>
+      <c r="U16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V16" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>289</v>
@@ -3198,7 +3230,7 @@
         <v>319</v>
       </c>
       <c r="F17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G17" t="s">
         <v>320</v>
@@ -3207,34 +3239,34 @@
         <v>361</v>
       </c>
       <c r="J17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K17">
         <v>400000</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P17" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>379</v>
+      </c>
+      <c r="R17" t="s">
         <v>380</v>
       </c>
-      <c r="Q17" t="s">
-        <v>380</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="T17" t="s">
         <v>382</v>
-      </c>
-      <c r="T17" t="s">
-        <v>383</v>
       </c>
       <c r="U17" t="s">
         <v>210</v>
@@ -3248,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>289</v>
@@ -3260,7 +3292,7 @@
         <v>310</v>
       </c>
       <c r="F18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G18" t="s">
         <v>360</v>
@@ -3275,28 +3307,28 @@
         <v>400000</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P18" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>379</v>
+      </c>
+      <c r="R18" t="s">
         <v>380</v>
       </c>
-      <c r="Q18" t="s">
-        <v>380</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="S18" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" t="s">
         <v>382</v>
-      </c>
-      <c r="T18" t="s">
-        <v>383</v>
       </c>
       <c r="U18" t="s">
         <v>210</v>
@@ -3310,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>289</v>
@@ -3322,7 +3354,7 @@
         <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G19" t="s">
         <v>360</v>
@@ -3337,28 +3369,28 @@
         <v>400000</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>295</v>
       </c>
       <c r="P19" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>379</v>
+      </c>
+      <c r="R19" t="s">
         <v>380</v>
       </c>
-      <c r="Q19" t="s">
-        <v>380</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="S19" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="T19" t="s">
         <v>382</v>
-      </c>
-      <c r="T19" t="s">
-        <v>383</v>
       </c>
       <c r="U19" t="s">
         <v>210</v>
@@ -3372,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>289</v>
@@ -3384,7 +3416,7 @@
         <v>359</v>
       </c>
       <c r="F20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G20" t="s">
         <v>360</v>
@@ -3393,34 +3425,34 @@
         <v>361</v>
       </c>
       <c r="J20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K20">
         <v>400000</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>362</v>
+        <v>473</v>
       </c>
       <c r="P20" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>379</v>
+      </c>
+      <c r="R20" t="s">
         <v>380</v>
       </c>
-      <c r="Q20" t="s">
-        <v>380</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="S20" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="T20" t="s">
         <v>382</v>
-      </c>
-      <c r="T20" t="s">
-        <v>383</v>
       </c>
       <c r="U20" t="s">
         <v>210</v>
@@ -3434,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>289</v>
@@ -3446,7 +3478,7 @@
         <v>359</v>
       </c>
       <c r="F21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G21" t="s">
         <v>298</v>
@@ -3455,34 +3487,34 @@
         <v>361</v>
       </c>
       <c r="J21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K21">
         <v>400000</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="P21" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>379</v>
+      </c>
+      <c r="R21" t="s">
         <v>380</v>
       </c>
-      <c r="Q21" t="s">
-        <v>380</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="S21" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="T21" t="s">
         <v>382</v>
-      </c>
-      <c r="T21" t="s">
-        <v>383</v>
       </c>
       <c r="U21" t="s">
         <v>210</v>
@@ -3496,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>289</v>
@@ -3508,7 +3540,7 @@
         <v>312</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G22" t="s">
         <v>301</v>
@@ -3517,34 +3549,34 @@
         <v>361</v>
       </c>
       <c r="J22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K22">
         <v>400000</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P22" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>379</v>
+      </c>
+      <c r="R22" t="s">
         <v>380</v>
       </c>
-      <c r="Q22" t="s">
-        <v>380</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="S22" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="T22" t="s">
         <v>382</v>
-      </c>
-      <c r="T22" t="s">
-        <v>383</v>
       </c>
       <c r="U22" t="s">
         <v>186</v>
@@ -3553,7 +3585,7 @@
         <v>186</v>
       </c>
       <c r="W22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X22" s="13">
         <v>100000000</v>
@@ -3588,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>289</v>
@@ -3600,7 +3632,7 @@
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G23" t="s">
         <v>360</v>
@@ -3609,34 +3641,34 @@
         <v>361</v>
       </c>
       <c r="J23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K23">
         <v>400000</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>362</v>
+        <v>475</v>
       </c>
       <c r="P23" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>379</v>
+      </c>
+      <c r="R23" t="s">
         <v>380</v>
       </c>
-      <c r="Q23" t="s">
-        <v>380</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="S23" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="T23" t="s">
         <v>382</v>
-      </c>
-      <c r="T23" t="s">
-        <v>383</v>
       </c>
       <c r="U23" t="s">
         <v>186</v>
@@ -3645,7 +3677,7 @@
         <v>187</v>
       </c>
       <c r="W23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X23" s="13">
         <v>100000000</v>
@@ -3680,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>289</v>
@@ -3692,7 +3724,7 @@
         <v>315</v>
       </c>
       <c r="F24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G24" t="s">
         <v>360</v>
@@ -3701,34 +3733,34 @@
         <v>361</v>
       </c>
       <c r="J24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K24">
         <v>400000</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P24" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>379</v>
+      </c>
+      <c r="R24" t="s">
         <v>380</v>
       </c>
-      <c r="Q24" t="s">
-        <v>380</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="S24" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="T24" t="s">
         <v>382</v>
-      </c>
-      <c r="T24" t="s">
-        <v>383</v>
       </c>
       <c r="U24" t="s">
         <v>186</v>
@@ -3737,7 +3769,7 @@
         <v>187</v>
       </c>
       <c r="W24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="X24" s="13">
         <v>100000000</v>
@@ -3784,7 +3816,7 @@
         <v>304</v>
       </c>
       <c r="F25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G25" t="s">
         <v>302</v>
@@ -3793,34 +3825,34 @@
         <v>361</v>
       </c>
       <c r="J25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K25">
         <v>400000</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P25" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>379</v>
+      </c>
+      <c r="R25" t="s">
         <v>380</v>
       </c>
-      <c r="Q25" t="s">
-        <v>380</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="S25" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="T25" t="s">
         <v>382</v>
-      </c>
-      <c r="T25" t="s">
-        <v>383</v>
       </c>
       <c r="U25" t="s">
         <v>186</v>
@@ -3829,7 +3861,7 @@
         <v>187</v>
       </c>
       <c r="W25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X25" s="13">
         <v>100000000</v>
@@ -3876,7 +3908,7 @@
         <v>304</v>
       </c>
       <c r="F26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G26" t="s">
         <v>306</v>
@@ -3885,34 +3917,34 @@
         <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K26">
         <v>400000</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P26" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>379</v>
+      </c>
+      <c r="R26" t="s">
         <v>380</v>
       </c>
-      <c r="Q26" t="s">
-        <v>380</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="S26" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="T26" t="s">
         <v>382</v>
-      </c>
-      <c r="T26" t="s">
-        <v>383</v>
       </c>
       <c r="U26" t="s">
         <v>210</v>
@@ -3938,7 +3970,7 @@
         <v>308</v>
       </c>
       <c r="F27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G27" t="s">
         <v>360</v>
@@ -3947,34 +3979,34 @@
         <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K27">
         <v>400000</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P27" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>379</v>
+      </c>
+      <c r="R27" t="s">
         <v>380</v>
       </c>
-      <c r="Q27" t="s">
-        <v>380</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="S27" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="T27" t="s">
         <v>382</v>
-      </c>
-      <c r="T27" t="s">
-        <v>383</v>
       </c>
       <c r="U27" t="s">
         <v>186</v>
@@ -3983,7 +4015,7 @@
         <v>187</v>
       </c>
       <c r="W27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="X27" s="13">
         <v>100000000</v>
@@ -4030,7 +4062,7 @@
         <v>317</v>
       </c>
       <c r="F28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G28" t="s">
         <v>360</v>
@@ -4039,34 +4071,34 @@
         <v>361</v>
       </c>
       <c r="J28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K28">
         <v>400000</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P28" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>379</v>
+      </c>
+      <c r="R28" t="s">
         <v>380</v>
       </c>
-      <c r="Q28" t="s">
-        <v>380</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="S28" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="T28" t="s">
         <v>382</v>
-      </c>
-      <c r="T28" t="s">
-        <v>383</v>
       </c>
       <c r="U28" t="s">
         <v>186</v>
@@ -4075,7 +4107,7 @@
         <v>186</v>
       </c>
       <c r="W28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X28" s="13">
         <v>100000000</v>
@@ -4122,7 +4154,7 @@
         <v>359</v>
       </c>
       <c r="F29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G29" t="s">
         <v>326</v>
@@ -4137,28 +4169,28 @@
         <v>400000</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P29" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>379</v>
+      </c>
+      <c r="R29" t="s">
         <v>380</v>
       </c>
-      <c r="Q29" t="s">
-        <v>380</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="S29" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="T29" t="s">
         <v>382</v>
-      </c>
-      <c r="T29" t="s">
-        <v>383</v>
       </c>
       <c r="U29" t="s">
         <v>186</v>
@@ -4167,7 +4199,7 @@
         <v>186</v>
       </c>
       <c r="W29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="X29" s="13">
         <v>100000000</v>
@@ -4214,7 +4246,7 @@
         <v>323</v>
       </c>
       <c r="F30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G30" t="s">
         <v>360</v>
@@ -4229,28 +4261,28 @@
         <v>400000</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O30" t="s">
         <v>324</v>
       </c>
       <c r="P30" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>379</v>
+      </c>
+      <c r="R30" t="s">
         <v>380</v>
       </c>
-      <c r="Q30" t="s">
-        <v>380</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="S30" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S30" s="6" t="s">
+      <c r="T30" t="s">
         <v>382</v>
-      </c>
-      <c r="T30" t="s">
-        <v>383</v>
       </c>
       <c r="U30" t="s">
         <v>210</v>
@@ -4276,7 +4308,7 @@
         <v>328</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G31" t="s">
         <v>360</v>
@@ -4291,28 +4323,28 @@
         <v>400000</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P31" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>379</v>
+      </c>
+      <c r="R31" t="s">
         <v>380</v>
       </c>
-      <c r="Q31" t="s">
-        <v>380</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="S31" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="T31" t="s">
         <v>382</v>
-      </c>
-      <c r="T31" t="s">
-        <v>383</v>
       </c>
       <c r="U31" t="s">
         <v>210</v>
@@ -4338,7 +4370,7 @@
         <v>330</v>
       </c>
       <c r="F32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G32" t="s">
         <v>360</v>
@@ -4347,34 +4379,34 @@
         <v>361</v>
       </c>
       <c r="J32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K32">
         <v>400000</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>379</v>
+      </c>
+      <c r="R32" t="s">
         <v>380</v>
       </c>
-      <c r="Q32" t="s">
-        <v>380</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="S32" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="T32" t="s">
         <v>382</v>
-      </c>
-      <c r="T32" t="s">
-        <v>383</v>
       </c>
       <c r="U32" t="s">
         <v>210</v>
@@ -4400,7 +4432,7 @@
         <v>333</v>
       </c>
       <c r="F33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G33" t="s">
         <v>334</v>
@@ -4415,28 +4447,28 @@
         <v>400000</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O33" t="s">
         <v>331</v>
       </c>
       <c r="P33" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>379</v>
+      </c>
+      <c r="R33" t="s">
         <v>380</v>
       </c>
-      <c r="Q33" t="s">
-        <v>380</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="S33" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="T33" t="s">
         <v>382</v>
-      </c>
-      <c r="T33" t="s">
-        <v>383</v>
       </c>
       <c r="U33" t="s">
         <v>186</v>
@@ -4445,7 +4477,7 @@
         <v>187</v>
       </c>
       <c r="W33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="X33" s="13">
         <v>100000000</v>
@@ -4492,7 +4524,7 @@
         <v>337</v>
       </c>
       <c r="F34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G34" t="s">
         <v>338</v>
@@ -4501,34 +4533,34 @@
         <v>361</v>
       </c>
       <c r="J34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K34">
         <v>400000</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O34" t="s">
         <v>335</v>
       </c>
       <c r="P34" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>379</v>
+      </c>
+      <c r="R34" t="s">
         <v>380</v>
       </c>
-      <c r="Q34" t="s">
-        <v>380</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="S34" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="T34" t="s">
         <v>382</v>
-      </c>
-      <c r="T34" t="s">
-        <v>383</v>
       </c>
       <c r="U34" t="s">
         <v>210</v>
@@ -4554,7 +4586,7 @@
         <v>342</v>
       </c>
       <c r="F35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G35" t="s">
         <v>360</v>
@@ -4563,34 +4595,34 @@
         <v>361</v>
       </c>
       <c r="J35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K35">
         <v>400000</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P35" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>379</v>
+      </c>
+      <c r="R35" t="s">
         <v>380</v>
       </c>
-      <c r="Q35" t="s">
-        <v>380</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="S35" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="T35" t="s">
         <v>382</v>
-      </c>
-      <c r="T35" t="s">
-        <v>383</v>
       </c>
       <c r="U35" t="s">
         <v>210</v>
@@ -4616,7 +4648,7 @@
         <v>344</v>
       </c>
       <c r="F36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G36" t="s">
         <v>360</v>
@@ -4625,34 +4657,34 @@
         <v>361</v>
       </c>
       <c r="J36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K36">
         <v>400000</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P36" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>379</v>
+      </c>
+      <c r="R36" t="s">
         <v>380</v>
       </c>
-      <c r="Q36" t="s">
-        <v>380</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="S36" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="T36" t="s">
         <v>382</v>
-      </c>
-      <c r="T36" t="s">
-        <v>383</v>
       </c>
       <c r="U36" t="s">
         <v>210</v>
@@ -4678,7 +4710,7 @@
         <v>340</v>
       </c>
       <c r="F37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G37" t="s">
         <v>360</v>
@@ -4687,34 +4719,34 @@
         <v>361</v>
       </c>
       <c r="J37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K37">
         <v>400000</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P37" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>379</v>
+      </c>
+      <c r="R37" t="s">
         <v>380</v>
       </c>
-      <c r="Q37" t="s">
-        <v>380</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="S37" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S37" s="6" t="s">
+      <c r="T37" t="s">
         <v>382</v>
-      </c>
-      <c r="T37" t="s">
-        <v>383</v>
       </c>
       <c r="U37" t="s">
         <v>210</v>
@@ -4740,7 +4772,7 @@
         <v>347</v>
       </c>
       <c r="F38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G38" t="s">
         <v>346</v>
@@ -4749,34 +4781,34 @@
         <v>361</v>
       </c>
       <c r="J38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K38">
         <v>400000</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>362</v>
+        <v>476</v>
       </c>
       <c r="P38" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>379</v>
+      </c>
+      <c r="R38" t="s">
         <v>380</v>
       </c>
-      <c r="Q38" t="s">
-        <v>380</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="S38" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="T38" t="s">
         <v>382</v>
-      </c>
-      <c r="T38" t="s">
-        <v>383</v>
       </c>
       <c r="U38" t="s">
         <v>210</v>
@@ -4802,7 +4834,7 @@
         <v>349</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G39" t="s">
         <v>360</v>
@@ -4811,34 +4843,34 @@
         <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K39">
         <v>400000</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O39" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="P39" t="s">
         <v>379</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
+        <v>379</v>
+      </c>
+      <c r="R39" t="s">
         <v>380</v>
       </c>
-      <c r="Q39" t="s">
-        <v>380</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="S39" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="T39" t="s">
         <v>382</v>
-      </c>
-      <c r="T39" t="s">
-        <v>383</v>
       </c>
       <c r="U39" t="s">
         <v>210</v>
@@ -4864,7 +4896,7 @@
         <v>352</v>
       </c>
       <c r="F40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G40" t="s">
         <v>353</v>
@@ -4873,34 +4905,34 @@
         <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K40">
         <v>400000</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O40" t="s">
         <v>351</v>
       </c>
       <c r="P40" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>379</v>
+      </c>
+      <c r="R40" t="s">
         <v>380</v>
       </c>
-      <c r="Q40" t="s">
-        <v>380</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="S40" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="T40" t="s">
         <v>382</v>
-      </c>
-      <c r="T40" t="s">
-        <v>383</v>
       </c>
       <c r="U40" t="s">
         <v>186</v>
@@ -4909,7 +4941,7 @@
         <v>187</v>
       </c>
       <c r="W40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="X40" s="13">
         <v>100000000</v>
@@ -4956,7 +4988,7 @@
         <v>352</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G41" t="s">
         <v>356</v>
@@ -4965,34 +4997,34 @@
         <v>361</v>
       </c>
       <c r="J41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K41">
         <v>400000</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O41" t="s">
         <v>355</v>
       </c>
       <c r="P41" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>379</v>
+      </c>
+      <c r="R41" t="s">
         <v>380</v>
       </c>
-      <c r="Q41" t="s">
-        <v>380</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="S41" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="T41" t="s">
         <v>382</v>
-      </c>
-      <c r="T41" t="s">
-        <v>383</v>
       </c>
       <c r="U41" t="s">
         <v>210</v>
@@ -5018,7 +5050,7 @@
         <v>357</v>
       </c>
       <c r="F42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G42" t="s">
         <v>360</v>
@@ -5027,34 +5059,34 @@
         <v>361</v>
       </c>
       <c r="J42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K42">
         <v>400000</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>362</v>
+        <v>66</v>
       </c>
       <c r="P42" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>379</v>
+      </c>
+      <c r="R42" t="s">
         <v>380</v>
       </c>
-      <c r="Q42" t="s">
-        <v>380</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="S42" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="S42" s="6" t="s">
+      <c r="T42" t="s">
         <v>382</v>
-      </c>
-      <c r="T42" t="s">
-        <v>383</v>
       </c>
       <c r="U42" t="s">
         <v>186</v>
@@ -5063,7 +5095,7 @@
         <v>186</v>
       </c>
       <c r="W42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X42" s="13">
         <v>100000000</v>
@@ -5115,24 +5147,24 @@
     <hyperlink ref="O39" r:id="rId18" xr:uid="{CE0D80EC-C5CE-403E-94E6-3C2110A07028}"/>
     <hyperlink ref="M3:M42" r:id="rId19" display="https://nutshell.news" xr:uid="{DC17EF6B-AF0E-40EB-8E1C-4E73DEEB3559}"/>
     <hyperlink ref="N2:N42" r:id="rId20" display="https://nutshell.news" xr:uid="{19CA1A2A-82C0-4AD9-AF84-19D1CA1686E1}"/>
-    <hyperlink ref="O42" r:id="rId21" xr:uid="{04AAF9C5-0C3E-4E1F-9072-7807989238DB}"/>
-    <hyperlink ref="O38" r:id="rId22" xr:uid="{8228132F-9814-4437-8BC6-1A54BBE10CFB}"/>
-    <hyperlink ref="O23" r:id="rId23" xr:uid="{EA3540E8-6451-4D4B-A15D-4D36FD0D1E20}"/>
-    <hyperlink ref="O21" r:id="rId24" xr:uid="{9FB30509-67B3-4AA0-9DDB-D47AA8FF52A1}"/>
-    <hyperlink ref="O20" r:id="rId25" xr:uid="{737ECE90-08EC-4588-8B5B-7D1FF16F919D}"/>
-    <hyperlink ref="O13" r:id="rId26" xr:uid="{B5051242-03F1-4BF5-9ADC-AE8403A14516}"/>
-    <hyperlink ref="O12" r:id="rId27" xr:uid="{856D5ED7-2454-4019-94F7-62A0E0443F1E}"/>
-    <hyperlink ref="O16" r:id="rId28" xr:uid="{AF32BC96-3E60-47D9-98A0-18A944E58311}"/>
-    <hyperlink ref="O2" r:id="rId29" xr:uid="{D2F89F2F-3D42-4282-BA4A-ED74AEB764DE}"/>
-    <hyperlink ref="O3" r:id="rId30" xr:uid="{345DD1D0-5EAE-4BE2-B63B-E45D84A1B9A5}"/>
-    <hyperlink ref="O4" r:id="rId31" xr:uid="{A51C4BBD-0737-42B9-99DA-3CE797151370}"/>
-    <hyperlink ref="O5" r:id="rId32" xr:uid="{D6F76FBB-A4CD-4B93-8784-05B47C8D5866}"/>
-    <hyperlink ref="O6" r:id="rId33" xr:uid="{2A604D9E-E512-4A86-9C61-AEAF15A9135B}"/>
-    <hyperlink ref="O7" r:id="rId34" xr:uid="{7C3E72AB-FE7A-4E63-AB7B-72A23A393E40}"/>
-    <hyperlink ref="O8" r:id="rId35" xr:uid="{2C330E44-232E-4244-95DF-94E59512C004}"/>
-    <hyperlink ref="O9" r:id="rId36" xr:uid="{8259A974-CFDF-4A0E-9A1C-40AFF68AEAC5}"/>
-    <hyperlink ref="O10" r:id="rId37" xr:uid="{8770DDF9-3F6A-41F6-A7FF-184647B17F05}"/>
-    <hyperlink ref="O11" r:id="rId38" xr:uid="{B708C81D-C541-4E6E-B955-9DFD13AE1687}"/>
+    <hyperlink ref="O12" r:id="rId21" xr:uid="{856D5ED7-2454-4019-94F7-62A0E0443F1E}"/>
+    <hyperlink ref="O16" r:id="rId22" xr:uid="{AF32BC96-3E60-47D9-98A0-18A944E58311}"/>
+    <hyperlink ref="O2" r:id="rId23" xr:uid="{D2F89F2F-3D42-4282-BA4A-ED74AEB764DE}"/>
+    <hyperlink ref="O3" r:id="rId24" xr:uid="{345DD1D0-5EAE-4BE2-B63B-E45D84A1B9A5}"/>
+    <hyperlink ref="O4" r:id="rId25" xr:uid="{A51C4BBD-0737-42B9-99DA-3CE797151370}"/>
+    <hyperlink ref="O5" r:id="rId26" xr:uid="{D6F76FBB-A4CD-4B93-8784-05B47C8D5866}"/>
+    <hyperlink ref="O6" r:id="rId27" xr:uid="{2A604D9E-E512-4A86-9C61-AEAF15A9135B}"/>
+    <hyperlink ref="O7" r:id="rId28" xr:uid="{7C3E72AB-FE7A-4E63-AB7B-72A23A393E40}"/>
+    <hyperlink ref="O8" r:id="rId29" xr:uid="{2C330E44-232E-4244-95DF-94E59512C004}"/>
+    <hyperlink ref="O9" r:id="rId30" xr:uid="{8259A974-CFDF-4A0E-9A1C-40AFF68AEAC5}"/>
+    <hyperlink ref="O10" r:id="rId31" xr:uid="{8770DDF9-3F6A-41F6-A7FF-184647B17F05}"/>
+    <hyperlink ref="O11" r:id="rId32" xr:uid="{B708C81D-C541-4E6E-B955-9DFD13AE1687}"/>
+    <hyperlink ref="O13" r:id="rId33" xr:uid="{F2F23A8F-4C08-42C2-A3A7-C077775C86C0}"/>
+    <hyperlink ref="O20" r:id="rId34" xr:uid="{C1ED036A-1029-4093-828F-DFA9387F0EC0}"/>
+    <hyperlink ref="O21" r:id="rId35" xr:uid="{8FFB172F-9E3F-472F-83A1-F6141AA2018B}"/>
+    <hyperlink ref="O23" r:id="rId36" xr:uid="{563C5024-A5C0-4687-AE09-86E0A8DE3C09}"/>
+    <hyperlink ref="O38" r:id="rId37" xr:uid="{5A6AFFE0-7D18-4143-83FC-D88C538F3373}"/>
+    <hyperlink ref="O42" r:id="rId38" xr:uid="{F1083A35-C1DB-4E8D-922B-81AB5C4A051A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
@@ -5172,37 +5204,37 @@
         <v>274</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>200</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5213,7 +5245,7 @@
         <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D2" s="13">
         <v>100000000</v>
@@ -5254,7 +5286,7 @@
         <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D3" s="13">
         <v>100000000</v>
@@ -5295,7 +5327,7 @@
         <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D4" s="13">
         <v>100000000</v>
@@ -5339,7 +5371,7 @@
         <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D5" s="13">
         <v>100000000</v>
@@ -5383,7 +5415,7 @@
         <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D6" s="13">
         <v>100000000</v>
@@ -5427,7 +5459,7 @@
         <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D7" s="13">
         <v>100000000</v>
@@ -5471,7 +5503,7 @@
         <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D8" s="13">
         <v>100000000</v>
@@ -5515,7 +5547,7 @@
         <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D9" s="13">
         <v>100000000</v>
@@ -5603,7 +5635,7 @@
         <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D14" s="13">
         <v>100000000</v>
@@ -5680,7 +5712,7 @@
         <v>210</v>
       </c>
       <c r="P18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.5">
@@ -5713,7 +5745,7 @@
         <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D21" s="13">
         <v>100000000</v>
@@ -5757,7 +5789,7 @@
         <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D22" s="13">
         <v>100000000</v>
@@ -5801,7 +5833,7 @@
         <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D23" s="13">
         <v>100000000</v>
@@ -5845,7 +5877,7 @@
         <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D24" s="13">
         <v>100000000</v>
@@ -5900,7 +5932,7 @@
         <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D26" s="13">
         <v>100000000</v>
@@ -5944,7 +5976,7 @@
         <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D27" s="13">
         <v>100000000</v>
@@ -5988,7 +6020,7 @@
         <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D28" s="13">
         <v>100000000</v>
@@ -6056,7 +6088,7 @@
         <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D32" s="13">
         <v>100000000</v>
@@ -6145,7 +6177,7 @@
         <v>186</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D39" s="13">
         <v>100000000</v>
@@ -6194,7 +6226,7 @@
         <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D41" s="13">
         <v>100000000</v>
